--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8C61F-76E5-4FE0-A52F-62F5F3EA1106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9D6CD3-136C-4238-AF71-EAD258D55BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="506">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1542,6 +1542,21 @@
   </si>
   <si>
     <t>2:10-6:00</t>
+  </si>
+  <si>
+    <t>8:30-12:30</t>
+  </si>
+  <si>
+    <t>Generando datos de Pruebas del servicio ProcessPocEmbarkPassenger</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio ProcessPocEmbarkPassenger y subiendo NC a azure DevOps</t>
+  </si>
+  <si>
+    <t>1:30-5:30</t>
+  </si>
+  <si>
+    <t>Elaboración de documento con NC detectadas en eGate5 para fabricio</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2333,6 +2348,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5834,7 +5853,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6046,39 +6065,71 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="94">
+        <v>44965</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="93"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="93"/>
+      <c r="B23" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="91"/>
+      <c r="B24" s="103" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="113">
+        <v>44966</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="93"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="90"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="91"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9D6CD3-136C-4238-AF71-EAD258D55BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4A2A3-E00F-449D-86A5-E8FB678D6C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="531">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1557,6 +1557,81 @@
   </si>
   <si>
     <t>Elaboración de documento con NC detectadas en eGate5 para fabricio</t>
+  </si>
+  <si>
+    <t>8:30-12:18</t>
+  </si>
+  <si>
+    <t>12:18-3:00</t>
+  </si>
+  <si>
+    <t>3:00-5:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco santander resolviendo el problema de la tarjeta </t>
+  </si>
+  <si>
+    <t>Desarrollando script de prueba para el servicio ProcessSyncEmbarkPassenger y generando datos de prueba</t>
+  </si>
+  <si>
+    <t>8:30-10:26</t>
+  </si>
+  <si>
+    <t>Generando datos y script de prueba para campos requeridos en los servicios de MatchAndSimilarNames y subiendo NC a azure</t>
+  </si>
+  <si>
+    <t>Generando datos y script de prueba para campos requeridos en los servicios de Tracking</t>
+  </si>
+  <si>
+    <t>10:26-11:13</t>
+  </si>
+  <si>
+    <t>Subiendo NC a azure de los servicios que incluyen MatchAndSimilarNames y Tracking para campos requeridos</t>
+  </si>
+  <si>
+    <t>11:13-11:49</t>
+  </si>
+  <si>
+    <t>Estudio de herramienta mockaroo en lo que gianni me brinda información para probar otros parámetros</t>
+  </si>
+  <si>
+    <t>11:49-12:48</t>
+  </si>
+  <si>
+    <t>12:48-1:15</t>
+  </si>
+  <si>
+    <t>Analizando con gianni el servicio ProcessSyncEmbarkPassenger</t>
+  </si>
+  <si>
+    <t>Generar juego de datos y script de prueba para el servicio CheckDocument caso exitoso</t>
+  </si>
+  <si>
+    <t>Generar juego de datos y script de prueba para el servicio GetBlacklistHits caso exitoso</t>
+  </si>
+  <si>
+    <t>Generar juego de datos y script de prueba para el servicio IgnoreHit caso exitoso</t>
+  </si>
+  <si>
+    <t>Generar juego de datos y script de prueba para el servicio SetDNM caso exitoso</t>
+  </si>
+  <si>
+    <t>2:15-2:45</t>
+  </si>
+  <si>
+    <t>2:45-3:15</t>
+  </si>
+  <si>
+    <t>3:15-4:45</t>
+  </si>
+  <si>
+    <t>4:45-5:15</t>
+  </si>
+  <si>
+    <t>5:15-5:45</t>
+  </si>
+  <si>
+    <t>Ejecutando pruebas en postman para todos los juegos de datos generados</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2350,7 +2425,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2770,14 +2855,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2797,21 +2882,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2820,14 +2905,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2836,14 +2921,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -2852,14 +2937,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -2868,7 +2953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -2877,14 +2962,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -2893,14 +2978,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -2911,7 +2996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -2920,7 +3005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -2929,7 +3014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -2938,7 +3023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -2947,7 +3032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -2956,7 +3041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -2965,7 +3050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -2976,7 +3061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -2985,7 +3070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -2994,7 +3079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3003,7 +3088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3012,7 +3097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3021,7 +3106,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3030,7 +3115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3039,7 +3124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3048,7 +3133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3059,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3068,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3077,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3086,7 +3171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3095,7 +3180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3104,7 +3189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3113,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3122,7 +3207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3131,7 +3216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3140,7 +3225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3149,7 +3234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3158,7 +3243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3167,7 +3252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3178,7 +3263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3187,7 +3272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3196,7 +3281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3205,7 +3290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3214,7 +3299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3223,7 +3308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3234,7 +3319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3243,7 +3328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3252,7 +3337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3261,7 +3346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3270,7 +3355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3279,7 +3364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3290,7 +3375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3299,7 +3384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3308,7 +3393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3317,7 +3402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3327,7 +3412,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3336,7 +3421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3347,7 +3432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3356,7 +3441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3365,7 +3450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3376,7 +3461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3385,7 +3470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3394,7 +3479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3405,7 +3490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3414,7 +3499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3423,7 +3508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3432,7 +3517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3441,7 +3526,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3450,7 +3535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3459,7 +3544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3470,7 +3555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3479,7 +3564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3488,7 +3573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3499,7 +3584,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3508,7 +3593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3517,7 +3602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3543,14 +3628,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3561,7 +3646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3572,7 +3657,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3581,7 +3666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3590,7 +3675,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3601,7 +3686,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3610,7 +3695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3619,7 +3704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3630,7 +3715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3639,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3648,7 +3733,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3657,7 +3742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3666,7 +3751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3675,7 +3760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3686,7 +3771,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3695,7 +3780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3704,7 +3789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3713,7 +3798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3722,7 +3807,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3731,7 +3816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3740,7 +3825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3749,7 +3834,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3760,7 +3845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3769,7 +3854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3778,7 +3863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3787,7 +3872,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3796,7 +3881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3807,7 +3892,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3816,7 +3901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3825,7 +3910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3834,7 +3919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3845,7 +3930,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -3854,7 +3939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -3863,7 +3948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -3872,7 +3957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -3883,7 +3968,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -3892,7 +3977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -3901,7 +3986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -3910,7 +3995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -3919,7 +4004,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -3928,7 +4013,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -3939,7 +4024,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -3948,7 +4033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -3957,7 +4042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -3966,7 +4051,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -3975,7 +4060,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -3984,7 +4069,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -3993,7 +4078,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4004,7 +4089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4013,7 +4098,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4022,7 +4107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4031,7 +4116,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4042,7 +4127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4051,7 +4136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4060,7 +4145,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4069,7 +4154,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4080,7 +4165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4089,7 +4174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4098,7 +4183,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4107,7 +4192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4116,7 +4201,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4127,7 +4212,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4136,7 +4221,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4145,7 +4230,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4154,7 +4239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4163,7 +4248,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4174,7 +4259,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4183,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4192,7 +4277,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4201,7 +4286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4212,7 +4297,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4221,7 +4306,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4230,7 +4315,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4239,7 +4324,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4248,7 +4333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4257,7 +4342,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4266,7 +4351,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4277,7 +4362,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4286,7 +4371,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4295,7 +4380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4306,7 +4391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4315,7 +4400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4324,7 +4409,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4333,7 +4418,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4342,7 +4427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4351,7 +4436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4362,7 +4447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4371,7 +4456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4380,7 +4465,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4391,7 +4476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4400,7 +4485,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4409,7 +4494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4418,7 +4503,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4427,7 +4512,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4436,7 +4521,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4447,7 +4532,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4456,7 +4541,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4465,7 +4550,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4474,7 +4559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4483,7 +4568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4492,7 +4577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4503,7 +4588,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4512,7 +4597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4521,7 +4606,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4532,7 +4617,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4541,7 +4626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4563,14 +4648,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4581,7 +4666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4592,7 +4677,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4601,7 +4686,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4610,7 +4695,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4619,7 +4704,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4628,7 +4713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4637,7 +4722,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4646,7 +4731,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4656,7 +4741,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4665,7 +4750,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4676,7 +4761,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4685,7 +4770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4694,7 +4779,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4703,7 +4788,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4714,7 +4799,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4723,7 +4808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4732,7 +4817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4741,7 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4750,7 +4835,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4759,7 +4844,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4768,7 +4853,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4779,7 +4864,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4788,7 +4873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4797,7 +4882,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4806,7 +4891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4817,7 +4902,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4826,7 +4911,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4835,7 +4920,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4844,7 +4929,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -4853,7 +4938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -4862,7 +4947,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -4871,7 +4956,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -4882,7 +4967,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -4891,7 +4976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -4900,7 +4985,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -4909,7 +4994,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -4920,7 +5005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -4929,7 +5014,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -4938,7 +5023,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -4947,7 +5032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -4956,7 +5041,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -4965,7 +5050,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -4974,7 +5059,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -4985,7 +5070,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -4994,7 +5079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5003,7 +5088,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5012,7 +5097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5021,7 +5106,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5030,7 +5115,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5041,7 +5126,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5050,7 +5135,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5059,7 +5144,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5068,7 +5153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5077,7 +5162,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5086,7 +5171,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5097,7 +5182,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5106,7 +5191,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5115,7 +5200,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5124,7 +5209,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5134,7 +5219,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5143,7 +5228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5153,7 +5238,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5162,7 +5247,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5173,7 +5258,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5182,7 +5267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5191,7 +5276,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5202,7 +5287,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5211,7 +5296,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5221,7 +5306,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5230,7 +5315,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5239,7 +5324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5249,7 +5334,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5258,7 +5343,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5267,7 +5352,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5276,7 +5361,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5285,7 +5370,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5296,7 +5381,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5305,7 +5390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5315,7 +5400,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5325,7 +5410,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5334,7 +5419,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5343,7 +5428,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5354,7 +5439,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5363,7 +5448,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5372,7 +5457,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5381,7 +5466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5390,7 +5475,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5400,7 +5485,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5409,7 +5494,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5418,7 +5503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5427,7 +5512,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5436,7 +5521,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5445,7 +5530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5456,7 +5541,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5465,7 +5550,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5474,7 +5559,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5483,7 +5568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5492,7 +5577,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5501,7 +5586,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5510,7 +5595,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5521,7 +5606,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5530,7 +5615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5539,7 +5624,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5548,7 +5633,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5557,7 +5642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5568,7 +5653,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5577,7 +5662,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5586,7 +5671,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5595,7 +5680,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5604,7 +5689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5613,7 +5698,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5622,7 +5707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5631,7 +5716,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5641,7 +5726,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5652,7 +5737,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5661,7 +5746,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5670,7 +5755,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5679,7 +5764,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5688,7 +5773,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5697,7 +5782,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5708,7 +5793,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5717,7 +5802,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5726,7 +5811,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5735,7 +5820,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5745,7 +5830,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5755,7 +5840,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5764,7 +5849,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5773,7 +5858,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5782,7 +5867,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5794,7 +5879,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5803,7 +5888,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5812,7 +5897,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -5823,7 +5908,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -5832,7 +5917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -5850,20 +5935,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -5874,7 +5959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -5885,7 +5970,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -5894,7 +5979,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -5903,7 +5988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -5912,7 +5997,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -5923,7 +6008,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -5932,7 +6017,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -5941,7 +6026,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -5950,7 +6035,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -5959,7 +6044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -5968,7 +6053,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -5977,7 +6062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -5988,7 +6073,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -5997,7 +6082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6006,7 +6091,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6017,7 +6102,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6026,7 +6111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6035,7 +6120,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6046,7 +6131,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6055,7 +6140,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6064,7 +6149,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6075,25 +6160,25 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="105" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6104,7 +6189,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6113,22 +6198,144 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="105" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="91"/>
-      <c r="B28" s="103" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="93" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="94">
+        <v>44967</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="90"/>
+      <c r="B30" s="99" t="s">
+        <v>507</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="91"/>
+      <c r="B31" s="117" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="114">
+        <v>44970</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>512</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="99" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="99" t="s">
+        <v>516</v>
+      </c>
+      <c r="C34" s="116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="99" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="119" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" s="116" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="107" t="s">
+        <v>527</v>
+      </c>
+      <c r="C40" s="116" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="107" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>524</v>
+      </c>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="115" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4A2A3-E00F-449D-86A5-E8FB678D6C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D41BF-4733-4C1D-B13F-1498524F6D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="541">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1632,6 +1632,36 @@
   </si>
   <si>
     <t>Ejecutando pruebas en postman para todos los juegos de datos generados</t>
+  </si>
+  <si>
+    <t>Correcciones en el flujo de ejecución de servicios</t>
+  </si>
+  <si>
+    <t>9:30-9:40</t>
+  </si>
+  <si>
+    <t>Reunión con Gianni para ver porque el servicio ProcessDocumentEmbarkPassenger nondevuelve datos en la respuesta</t>
+  </si>
+  <si>
+    <t>9:40-10:11</t>
+  </si>
+  <si>
+    <t>Correcciones en los script y el flujo y separando colecciones dnm y torino</t>
+  </si>
+  <si>
+    <t>10:11-1:00</t>
+  </si>
+  <si>
+    <t>2:00-6:30</t>
+  </si>
+  <si>
+    <t>Aumentando script de prueba en los servicios ProcessPocEmbarkPassenger y ProcessDocumentEmbarkPassenger</t>
+  </si>
+  <si>
+    <t>8:30-1:32</t>
+  </si>
+  <si>
+    <t>Aumentando juego de datos para el servicio ProcessDocumentEmbarkPassenger y probando en postman</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2134,11 +2164,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2426,18 +2474,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5935,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,104 +6281,180 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="105" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="114">
+      <c r="A32" s="94">
         <v>44970</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="95" t="s">
         <v>512</v>
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
       </c>
-      <c r="C33" s="116" t="s">
+      <c r="C33" s="96" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="96" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="96" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="96" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="96" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="119" t="s">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="115" t="s">
         <v>526</v>
       </c>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="96" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="96" t="s">
         <v>524</v>
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="91"/>
+      <c r="B42" s="116" t="s">
         <v>529</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="105" t="s">
         <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="94">
+        <v>44971</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>532</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
+      <c r="B44" s="119" t="s">
+        <v>534</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="119" t="s">
+        <v>536</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
+      <c r="B46" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="91"/>
+      <c r="B47" s="116" t="s">
+        <v>537</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="114">
+        <v>44972</v>
+      </c>
+      <c r="B48" s="107" t="s">
+        <v>539</v>
+      </c>
+      <c r="C48" s="117" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="107">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="C49" s="117" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5D41BF-4733-4C1D-B13F-1498524F6D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA2393E-9045-4B9B-B075-B96F1A3A6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="548">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1662,6 +1662,27 @@
   </si>
   <si>
     <t>Aumentando juego de datos para el servicio ProcessDocumentEmbarkPassenger y probando en postman</t>
+  </si>
+  <si>
+    <t>1:32-2:32</t>
+  </si>
+  <si>
+    <t>2:32-5:30</t>
+  </si>
+  <si>
+    <t>Corrigiendo script del servicio ProcessPocEmbarkPassenger que no me devolvia bien la respuesta porque estaba formateando el code2D mal</t>
+  </si>
+  <si>
+    <t>10:45-1:00</t>
+  </si>
+  <si>
+    <t>Tramite de residencia</t>
+  </si>
+  <si>
+    <t>1:00-6:30</t>
+  </si>
+  <si>
+    <t>Subiendo no conformidades a azure de los servicios ProcessPocEmbarkPassenger y ProcessDocumentEmbarkPassenger</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2476,11 +2497,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5978,10 +6000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,7 +6417,7 @@
       <c r="A43" s="94">
         <v>44971</v>
       </c>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="117" t="s">
         <v>532</v>
       </c>
       <c r="C43" s="95" t="s">
@@ -6404,7 +6426,7 @@
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="107" t="s">
         <v>534</v>
       </c>
       <c r="C44" s="96" t="s">
@@ -6413,7 +6435,7 @@
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="107" t="s">
         <v>536</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -6422,10 +6444,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
-      <c r="B46" s="119" t="s">
+      <c r="B46" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="96" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6439,22 +6461,59 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="114">
+      <c r="A48" s="94">
         <v>44972</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="117" t="s">
         <v>539</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="95" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="107">
-        <v>6.3888888888888884E-2</v>
-      </c>
-      <c r="C49" s="117" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="119" t="s">
+        <v>541</v>
+      </c>
+      <c r="C49" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="91"/>
+      <c r="B50" s="116" t="s">
+        <v>542</v>
+      </c>
+      <c r="C50" s="105" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="114">
+        <v>44973</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>479</v>
+      </c>
+      <c r="C51" s="118" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="120" t="s">
+        <v>544</v>
+      </c>
+      <c r="C52" s="118" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="120" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" s="118" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA2393E-9045-4B9B-B075-B96F1A3A6061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1CBAB2-3BA5-43EB-94E6-C0B8E96A0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="563">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1683,6 +1683,51 @@
   </si>
   <si>
     <t>Subiendo no conformidades a azure de los servicios ProcessPocEmbarkPassenger y ProcessDocumentEmbarkPassenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas a los servicios ProcessSyncEmbarkPassenger y ProcessMatch  </t>
+  </si>
+  <si>
+    <t>Pruebas al servicio ProcessSimilar y GetByDNMDocument</t>
+  </si>
+  <si>
+    <t>Pruebas a los servicios GetAllTracking, GetModifiedTracking, GetSimilarNamesAsync y MatchDocumentBcbp(No terminado, dependo de gianni)</t>
+  </si>
+  <si>
+    <t>2:30-4:00</t>
+  </si>
+  <si>
+    <t>Probando el servicio ProcessDocumentEmbarkPassenger para pais y nacionalidad diferentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comenzando integración de poc con dnm(no terminado) </t>
+  </si>
+  <si>
+    <t>Entender servicio MatchDocumentBcbp a partir de ejemplo proporcionado por Gianni</t>
+  </si>
+  <si>
+    <t>9:30-10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecución de la colección torino para obtener respuesta de los primeros dos servicios y usarlos en el servicio  MatchDocumentBcbp. </t>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración de poc con dnm(no terminado) </t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>Ejecutando servicio UnmatchDocumentBcbp para poder probar correctamente el servicio MatchDocumentBcbp(No terminado, esperando por gianni porque da error desconocido el servicio)</t>
+  </si>
+  <si>
+    <t>Integración de poc con dnm</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2494,15 +2539,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2920,14 +2960,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2938,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2947,21 +2987,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -2970,14 +3010,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -2986,14 +3026,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -3002,14 +3042,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -3018,7 +3058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -3027,14 +3067,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -3043,14 +3083,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -3061,7 +3101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -3070,7 +3110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -3079,7 +3119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3088,7 +3128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -3097,7 +3137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -3106,7 +3146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -3115,7 +3155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -3126,7 +3166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -3135,7 +3175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -3144,7 +3184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3153,7 +3193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3162,7 +3202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3171,7 +3211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3180,7 +3220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3189,7 +3229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3198,7 +3238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3209,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3218,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3227,7 +3267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3236,7 +3276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3245,7 +3285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3254,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3263,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3272,7 +3312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3281,7 +3321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3290,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3299,7 +3339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3308,7 +3348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3317,7 +3357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3328,7 +3368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3337,7 +3377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3346,7 +3386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3355,7 +3395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3364,7 +3404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3373,7 +3413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3384,7 +3424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3393,7 +3433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3402,7 +3442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3411,7 +3451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3420,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3429,7 +3469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3440,7 +3480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3449,7 +3489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3458,7 +3498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3467,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3477,7 +3517,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3486,7 +3526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3497,7 +3537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3506,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3515,7 +3555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3526,7 +3566,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3535,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3544,7 +3584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3555,7 +3595,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3564,7 +3604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3573,7 +3613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3582,7 +3622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3591,7 +3631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3600,7 +3640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3609,7 +3649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3620,7 +3660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3629,7 +3669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3638,7 +3678,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3649,7 +3689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3658,7 +3698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3667,7 +3707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3693,14 +3733,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3711,7 +3751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3722,7 +3762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3731,7 +3771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3740,7 +3780,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3751,7 +3791,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3760,7 +3800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3769,7 +3809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3780,7 +3820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3789,7 +3829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3798,7 +3838,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3807,7 +3847,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3816,7 +3856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3825,7 +3865,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3836,7 +3876,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3845,7 +3885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3854,7 +3894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3863,7 +3903,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3872,7 +3912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3881,7 +3921,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3890,7 +3930,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3899,7 +3939,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3910,7 +3950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3919,7 +3959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3928,7 +3968,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3937,7 +3977,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3946,7 +3986,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3957,7 +3997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -3966,7 +4006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -3975,7 +4015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -3984,7 +4024,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -3995,7 +4035,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -4004,7 +4044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -4013,7 +4053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -4022,7 +4062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -4033,7 +4073,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -4042,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -4051,7 +4091,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -4060,7 +4100,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -4069,7 +4109,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -4078,7 +4118,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -4089,7 +4129,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -4098,7 +4138,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -4107,7 +4147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -4116,7 +4156,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -4125,7 +4165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -4134,7 +4174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -4143,7 +4183,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4154,7 +4194,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4163,7 +4203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4172,7 +4212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4181,7 +4221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4192,7 +4232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4201,7 +4241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4210,7 +4250,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4219,7 +4259,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4230,7 +4270,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4239,7 +4279,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4248,7 +4288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4257,7 +4297,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4266,7 +4306,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4277,7 +4317,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4286,7 +4326,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4295,7 +4335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4304,7 +4344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4313,7 +4353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4324,7 +4364,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4333,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4342,7 +4382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4351,7 +4391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4362,7 +4402,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4371,7 +4411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4380,7 +4420,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4389,7 +4429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4398,7 +4438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4407,7 +4447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4416,7 +4456,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4427,7 +4467,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4436,7 +4476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4445,7 +4485,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4456,7 +4496,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4465,7 +4505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4474,7 +4514,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4483,7 +4523,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4492,7 +4532,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4501,7 +4541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4512,7 +4552,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4521,7 +4561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4530,7 +4570,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4541,7 +4581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4550,7 +4590,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4559,7 +4599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4568,7 +4608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4577,7 +4617,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4586,7 +4626,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4597,7 +4637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4606,7 +4646,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4615,7 +4655,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4624,7 +4664,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4633,7 +4673,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4642,7 +4682,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4653,7 +4693,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4662,7 +4702,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4671,7 +4711,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4682,7 +4722,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4691,7 +4731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4713,14 +4753,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4731,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4742,7 +4782,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4751,7 +4791,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4760,7 +4800,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4769,7 +4809,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4778,7 +4818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4787,7 +4827,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4796,7 +4836,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4806,7 +4846,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4815,7 +4855,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4826,7 +4866,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4835,7 +4875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4844,7 +4884,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4853,7 +4893,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4864,7 +4904,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4873,7 +4913,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4882,7 +4922,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4891,7 +4931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4900,7 +4940,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4909,7 +4949,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4918,7 +4958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4929,7 +4969,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4938,7 +4978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4947,7 +4987,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4956,7 +4996,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -4967,7 +5007,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -4976,7 +5016,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -4985,7 +5025,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -4994,7 +5034,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -5003,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -5012,7 +5052,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -5021,7 +5061,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -5032,7 +5072,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -5041,7 +5081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -5050,7 +5090,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -5059,7 +5099,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -5070,7 +5110,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -5079,7 +5119,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -5088,7 +5128,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -5097,7 +5137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -5106,7 +5146,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -5115,7 +5155,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -5124,7 +5164,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -5135,7 +5175,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -5144,7 +5184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5153,7 +5193,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5162,7 +5202,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5171,7 +5211,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5180,7 +5220,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5191,7 +5231,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5200,7 +5240,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5209,7 +5249,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5218,7 +5258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5227,7 +5267,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5236,7 +5276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5247,7 +5287,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5256,7 +5296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5265,7 +5305,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5274,7 +5314,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5284,7 +5324,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5293,7 +5333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5303,7 +5343,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5312,7 +5352,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5323,7 +5363,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5332,7 +5372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5341,7 +5381,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5352,7 +5392,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5361,7 +5401,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5371,7 +5411,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5380,7 +5420,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5389,7 +5429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5399,7 +5439,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5408,7 +5448,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5417,7 +5457,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5426,7 +5466,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5435,7 +5475,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5446,7 +5486,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5455,7 +5495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5465,7 +5505,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5475,7 +5515,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5484,7 +5524,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5493,7 +5533,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5504,7 +5544,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5513,7 +5553,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5522,7 +5562,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5531,7 +5571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5540,7 +5580,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5550,7 +5590,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5559,7 +5599,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5568,7 +5608,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5577,7 +5617,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5586,7 +5626,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5595,7 +5635,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5606,7 +5646,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5615,7 +5655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5624,7 +5664,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5633,7 +5673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5642,7 +5682,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5651,7 +5691,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5660,7 +5700,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5671,7 +5711,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5680,7 +5720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5689,7 +5729,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5698,7 +5738,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5707,7 +5747,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5718,7 +5758,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5727,7 +5767,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5736,7 +5776,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5745,7 +5785,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5754,7 +5794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5763,7 +5803,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5772,7 +5812,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5781,7 +5821,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5791,7 +5831,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5802,7 +5842,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5811,7 +5851,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5820,7 +5860,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5829,7 +5869,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5838,7 +5878,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5847,7 +5887,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5858,7 +5898,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5867,7 +5907,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5876,7 +5916,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5885,7 +5925,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5895,7 +5935,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5905,7 +5945,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5914,7 +5954,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5923,7 +5963,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5932,7 +5972,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5944,7 +5984,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5953,7 +5993,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -5962,7 +6002,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -5973,7 +6013,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -5982,7 +6022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -6000,20 +6040,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -6024,7 +6064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -6035,7 +6075,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -6044,7 +6084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -6053,7 +6093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -6062,7 +6102,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -6073,7 +6113,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -6082,7 +6122,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -6091,7 +6131,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -6100,7 +6140,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -6109,7 +6149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -6118,7 +6158,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -6127,7 +6167,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -6138,7 +6178,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -6147,7 +6187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6156,7 +6196,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6167,7 +6207,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6176,7 +6216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6185,7 +6225,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6196,7 +6236,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6205,7 +6245,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6214,7 +6254,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6225,7 +6265,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
@@ -6234,7 +6274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
@@ -6243,7 +6283,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6254,7 +6294,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6263,7 +6303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
@@ -6272,7 +6312,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="90"/>
       <c r="B28" s="98" t="s">
         <v>165</v>
@@ -6281,7 +6321,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="94">
         <v>44967</v>
       </c>
@@ -6292,7 +6332,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="99" t="s">
         <v>507</v>
@@ -6301,7 +6341,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="91"/>
       <c r="B31" s="109" t="s">
         <v>508</v>
@@ -6310,7 +6350,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="94">
         <v>44970</v>
       </c>
@@ -6322,7 +6362,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
@@ -6331,7 +6371,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
@@ -6340,7 +6380,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
@@ -6349,7 +6389,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
@@ -6358,7 +6398,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
@@ -6367,7 +6407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
@@ -6376,16 +6416,16 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="114" t="s">
         <v>526</v>
       </c>
       <c r="C39" s="96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
@@ -6394,7 +6434,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
@@ -6404,27 +6444,27 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91"/>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="115" t="s">
         <v>529</v>
       </c>
       <c r="C42" s="105" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="94">
         <v>44971</v>
       </c>
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="116" t="s">
         <v>532</v>
       </c>
       <c r="C43" s="95" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="90"/>
       <c r="B44" s="107" t="s">
         <v>534</v>
@@ -6433,7 +6473,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="107" t="s">
         <v>536</v>
@@ -6442,7 +6482,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="107" t="s">
         <v>40</v>
@@ -6451,69 +6491,204 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="91"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="115" t="s">
         <v>537</v>
       </c>
       <c r="C47" s="105" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="94">
         <v>44972</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="116" t="s">
         <v>539</v>
       </c>
       <c r="C48" s="95" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="107" t="s">
         <v>541</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="91"/>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="115" t="s">
         <v>542</v>
       </c>
       <c r="C50" s="105" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="114">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="94">
         <v>44973</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="116" t="s">
         <v>479</v>
       </c>
-      <c r="C51" s="118" t="s">
+      <c r="C51" s="95" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="120" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="90"/>
+      <c r="B52" s="107" t="s">
         <v>544</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="96" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="120" t="s">
+    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="91"/>
+      <c r="B53" s="115" t="s">
         <v>546</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="105" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="94">
+        <v>44974</v>
+      </c>
+      <c r="B54" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>548</v>
+      </c>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="90"/>
+      <c r="B55" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="91"/>
+      <c r="B56" s="115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="94">
+        <v>44979</v>
+      </c>
+      <c r="B57" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="90"/>
+      <c r="B58" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="90"/>
+      <c r="B59" s="107" t="s">
+        <v>551</v>
+      </c>
+      <c r="C59" s="96" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="91"/>
+      <c r="B60" s="115" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="105" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="94">
+        <v>44980</v>
+      </c>
+      <c r="B61" s="116" t="s">
+        <v>555</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="90"/>
+      <c r="B62" s="117" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="90"/>
+      <c r="B63" s="117" t="s">
+        <v>559</v>
+      </c>
+      <c r="C63" s="96" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="90"/>
+      <c r="B64" s="117" t="s">
+        <v>560</v>
+      </c>
+      <c r="C64" s="96" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="90"/>
+      <c r="B65" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="90"/>
+      <c r="B66" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="91"/>
+      <c r="B67" s="115" t="s">
+        <v>537</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1CBAB2-3BA5-43EB-94E6-C0B8E96A0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E33AA-DB03-486F-A9BC-D968B482543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="569">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1728,6 +1728,24 @@
   </si>
   <si>
     <t>Integración de poc con dnm</t>
+  </si>
+  <si>
+    <t>Probando servicio UnmatchDocumentBcbp a partir de información que me dio Ginanni para poder probar correctamente el servicio MatchDocumentBcbp</t>
+  </si>
+  <si>
+    <t>Agregando servicios OnlyIDs y Passenger para poder probar UnmatchDocumentBcbp</t>
+  </si>
+  <si>
+    <t>9:30-10:43</t>
+  </si>
+  <si>
+    <t>Ejecución de la nueva colección y Realizando modificaciones en el servicio ProcessPocEmbarkPassenger para que inserte un pasajero siempre y por tanto el id sea distinto</t>
+  </si>
+  <si>
+    <t>10:43-1:30</t>
+  </si>
+  <si>
+    <t>Pruebas al servicio UnmatchDocumentBcbp(no terminado)</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2542,7 +2560,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2960,14 +2982,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +3000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -2987,21 +3009,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -3010,14 +3032,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -3026,14 +3048,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -3042,14 +3064,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -3067,14 +3089,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -3083,14 +3105,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -3101,7 +3123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -3110,7 +3132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -3119,7 +3141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3128,7 +3150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -3137,7 +3159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -3146,7 +3168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -3155,7 +3177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -3166,7 +3188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -3175,7 +3197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -3184,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3193,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3202,7 +3224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3211,7 +3233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3220,7 +3242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3229,7 +3251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3238,7 +3260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3249,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3258,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3267,7 +3289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3276,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3285,7 +3307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3294,7 +3316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3303,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3312,7 +3334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3321,7 +3343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3330,7 +3352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3339,7 +3361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3348,7 +3370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3357,7 +3379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3368,7 +3390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3377,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3386,7 +3408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3395,7 +3417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3404,7 +3426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3413,7 +3435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3424,7 +3446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3433,7 +3455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3442,7 +3464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3451,7 +3473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3460,7 +3482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3469,7 +3491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3480,7 +3502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3489,7 +3511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3498,7 +3520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3507,7 +3529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3517,7 +3539,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3526,7 +3548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3537,7 +3559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3546,7 +3568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3555,7 +3577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3566,7 +3588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3575,7 +3597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3584,7 +3606,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3595,7 +3617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3604,7 +3626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3613,7 +3635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3622,7 +3644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3631,7 +3653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3640,7 +3662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3649,7 +3671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3669,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3678,7 +3700,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3689,7 +3711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3698,7 +3720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3707,7 +3729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3733,14 +3755,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3751,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3762,7 +3784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3771,7 +3793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3780,7 +3802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3791,7 +3813,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3800,7 +3822,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3809,7 +3831,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3820,7 +3842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3829,7 +3851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3838,7 +3860,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3847,7 +3869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3856,7 +3878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3865,7 +3887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3876,7 +3898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3885,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3894,7 +3916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3903,7 +3925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3912,7 +3934,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3921,7 +3943,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3930,7 +3952,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3939,7 +3961,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3950,7 +3972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3959,7 +3981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3968,7 +3990,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3977,7 +3999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -3986,7 +4008,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -3997,7 +4019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -4006,7 +4028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -4015,7 +4037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -4024,7 +4046,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -4035,7 +4057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -4044,7 +4066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -4053,7 +4075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -4062,7 +4084,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -4073,7 +4095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -4082,7 +4104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -4091,7 +4113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -4100,7 +4122,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -4109,7 +4131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -4118,7 +4140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -4129,7 +4151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -4138,7 +4160,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -4147,7 +4169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -4156,7 +4178,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -4165,7 +4187,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -4174,7 +4196,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -4183,7 +4205,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4194,7 +4216,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4203,7 +4225,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4212,7 +4234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4221,7 +4243,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4232,7 +4254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4241,7 +4263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4250,7 +4272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4259,7 +4281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4270,7 +4292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4279,7 +4301,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4288,7 +4310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4297,7 +4319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4306,7 +4328,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4317,7 +4339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4326,7 +4348,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4335,7 +4357,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4344,7 +4366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4353,7 +4375,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4364,7 +4386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4373,7 +4395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4382,7 +4404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4391,7 +4413,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4402,7 +4424,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4411,7 +4433,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4420,7 +4442,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4429,7 +4451,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4438,7 +4460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4447,7 +4469,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4456,7 +4478,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4467,7 +4489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4476,7 +4498,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4485,7 +4507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4505,7 +4527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4514,7 +4536,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4523,7 +4545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4532,7 +4554,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4541,7 +4563,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4552,7 +4574,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4561,7 +4583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4570,7 +4592,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4581,7 +4603,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4590,7 +4612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4599,7 +4621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4608,7 +4630,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4617,7 +4639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4626,7 +4648,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4637,7 +4659,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4646,7 +4668,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4655,7 +4677,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4664,7 +4686,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4673,7 +4695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4682,7 +4704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4693,7 +4715,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4702,7 +4724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4711,7 +4733,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4722,7 +4744,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4731,7 +4753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4753,14 +4775,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4771,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4782,7 +4804,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4791,7 +4813,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4800,7 +4822,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4809,7 +4831,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4818,7 +4840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4827,7 +4849,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4836,7 +4858,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4846,7 +4868,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4855,7 +4877,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4866,7 +4888,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4875,7 +4897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4884,7 +4906,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4893,7 +4915,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4913,7 +4935,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4922,7 +4944,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4931,7 +4953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4940,7 +4962,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4949,7 +4971,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4958,7 +4980,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4969,7 +4991,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -4978,7 +5000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -4987,7 +5009,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -4996,7 +5018,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -5007,7 +5029,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -5016,7 +5038,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -5025,7 +5047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -5034,7 +5056,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -5043,7 +5065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -5052,7 +5074,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -5061,7 +5083,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -5072,7 +5094,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -5081,7 +5103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -5090,7 +5112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -5099,7 +5121,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -5110,7 +5132,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -5119,7 +5141,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -5128,7 +5150,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -5137,7 +5159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -5146,7 +5168,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -5155,7 +5177,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -5164,7 +5186,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -5175,7 +5197,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -5184,7 +5206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5193,7 +5215,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5202,7 +5224,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5211,7 +5233,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5220,7 +5242,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5231,7 +5253,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5240,7 +5262,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5249,7 +5271,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5258,7 +5280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5267,7 +5289,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5276,7 +5298,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5287,7 +5309,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5296,7 +5318,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5305,7 +5327,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5314,7 +5336,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5324,7 +5346,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5333,7 +5355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5343,7 +5365,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5352,7 +5374,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5363,7 +5385,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5372,7 +5394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5381,7 +5403,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5392,7 +5414,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5401,7 +5423,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5411,7 +5433,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5420,7 +5442,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5429,7 +5451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5439,7 +5461,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5448,7 +5470,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5457,7 +5479,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5466,7 +5488,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5475,7 +5497,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5486,7 +5508,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5495,7 +5517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5505,7 +5527,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5515,7 +5537,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5524,7 +5546,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5533,7 +5555,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5544,7 +5566,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5553,7 +5575,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5562,7 +5584,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5571,7 +5593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5580,7 +5602,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5590,7 +5612,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5599,7 +5621,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5608,7 +5630,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5617,7 +5639,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5626,7 +5648,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5635,7 +5657,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5646,7 +5668,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5655,7 +5677,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5664,7 +5686,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5673,7 +5695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5682,7 +5704,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5691,7 +5713,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5700,7 +5722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5711,7 +5733,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5720,7 +5742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5729,7 +5751,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5738,7 +5760,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5747,7 +5769,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5758,7 +5780,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5767,7 +5789,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5776,7 +5798,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5785,7 +5807,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5794,7 +5816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5803,7 +5825,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5812,7 +5834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5821,7 +5843,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5831,7 +5853,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5842,7 +5864,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5851,7 +5873,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5860,7 +5882,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5869,7 +5891,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5878,7 +5900,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5887,7 +5909,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5898,7 +5920,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5907,7 +5929,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5916,7 +5938,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5925,7 +5947,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5935,7 +5957,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5945,7 +5967,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5954,7 +5976,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5963,7 +5985,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5972,7 +5994,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -5984,7 +6006,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -5993,7 +6015,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -6002,7 +6024,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -6013,7 +6035,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -6022,7 +6044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -6040,20 +6062,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -6064,7 +6086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -6075,7 +6097,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -6084,7 +6106,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -6093,7 +6115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -6102,7 +6124,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -6113,7 +6135,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -6122,7 +6144,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -6131,7 +6153,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -6140,7 +6162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -6149,7 +6171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -6158,7 +6180,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -6167,7 +6189,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -6178,7 +6200,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -6187,7 +6209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6196,7 +6218,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6207,7 +6229,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6216,7 +6238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6225,7 +6247,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6236,7 +6258,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6245,7 +6267,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6254,7 +6276,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6265,7 +6287,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
@@ -6274,7 +6296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
@@ -6283,7 +6305,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6294,7 +6316,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6303,7 +6325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
@@ -6312,7 +6334,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="98" t="s">
         <v>165</v>
@@ -6321,7 +6343,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="94">
         <v>44967</v>
       </c>
@@ -6332,7 +6354,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="99" t="s">
         <v>507</v>
@@ -6341,7 +6363,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91"/>
       <c r="B31" s="109" t="s">
         <v>508</v>
@@ -6350,7 +6372,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="94">
         <v>44970</v>
       </c>
@@ -6362,7 +6384,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
@@ -6371,7 +6393,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
@@ -6380,7 +6402,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
@@ -6389,7 +6411,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
@@ -6398,7 +6420,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
@@ -6407,7 +6429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
@@ -6416,7 +6438,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="114" t="s">
         <v>526</v>
@@ -6425,7 +6447,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
@@ -6434,7 +6456,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
@@ -6444,7 +6466,7 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91"/>
       <c r="B42" s="115" t="s">
         <v>529</v>
@@ -6453,7 +6475,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>44971</v>
       </c>
@@ -6464,7 +6486,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="107" t="s">
         <v>534</v>
@@ -6473,7 +6495,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="107" t="s">
         <v>536</v>
@@ -6482,7 +6504,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="107" t="s">
         <v>40</v>
@@ -6491,7 +6513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="91"/>
       <c r="B47" s="115" t="s">
         <v>537</v>
@@ -6500,7 +6522,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="94">
         <v>44972</v>
       </c>
@@ -6511,7 +6533,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
       <c r="B49" s="107" t="s">
         <v>541</v>
@@ -6520,7 +6542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="91"/>
       <c r="B50" s="115" t="s">
         <v>542</v>
@@ -6529,7 +6551,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="94">
         <v>44973</v>
       </c>
@@ -6540,7 +6562,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="107" t="s">
         <v>544</v>
@@ -6549,7 +6571,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="91"/>
       <c r="B53" s="115" t="s">
         <v>546</v>
@@ -6558,7 +6580,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="94">
         <v>44974</v>
       </c>
@@ -6570,7 +6592,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="107" t="s">
         <v>149</v>
@@ -6579,7 +6601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91"/>
       <c r="B56" s="115" t="s">
         <v>489</v>
@@ -6588,7 +6610,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="94">
         <v>44979</v>
       </c>
@@ -6599,7 +6621,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="107" t="s">
         <v>149</v>
@@ -6608,7 +6630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="107" t="s">
         <v>551</v>
@@ -6617,7 +6639,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="91"/>
       <c r="B60" s="115" t="s">
         <v>410</v>
@@ -6626,7 +6648,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="94">
         <v>44980</v>
       </c>
@@ -6637,58 +6659,101 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
-      <c r="B62" s="117" t="s">
+      <c r="B62" s="107" t="s">
         <v>557</v>
       </c>
       <c r="C62" s="96" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="107" t="s">
         <v>559</v>
       </c>
       <c r="C63" s="96" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="107" t="s">
         <v>560</v>
       </c>
       <c r="C64" s="96" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="107" t="s">
         <v>184</v>
       </c>
       <c r="C65" s="96" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
-      <c r="B66" s="117" t="s">
+      <c r="B66" s="107" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91"/>
       <c r="B67" s="115" t="s">
         <v>537</v>
       </c>
       <c r="C67" s="105" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="117">
+        <v>44981</v>
+      </c>
+      <c r="B68" s="118" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="107" t="s">
+        <v>565</v>
+      </c>
+      <c r="C69" s="119" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="107" t="s">
+        <v>567</v>
+      </c>
+      <c r="C70" s="119" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="119" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E33AA-DB03-486F-A9BC-D968B482543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9A12D-EB21-4CDD-9F5E-8C1A8483DB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="585">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1746,6 +1746,54 @@
   </si>
   <si>
     <t>Pruebas al servicio UnmatchDocumentBcbp(no terminado)</t>
+  </si>
+  <si>
+    <t>Modificando script de pruebas en postman en los servicios OnlyIDs y probando servicio MatchDocumentBcbp y UnmatchDocumentBcbp para flujos basicos</t>
+  </si>
+  <si>
+    <t>Generando datos de pruebas al servicio AddTrackingToGallery</t>
+  </si>
+  <si>
+    <t>9:30-11:00</t>
+  </si>
+  <si>
+    <t>11:00-12:30</t>
+  </si>
+  <si>
+    <t>Reunidos debatiendo spring 34</t>
+  </si>
+  <si>
+    <t>12:30-1:00</t>
+  </si>
+  <si>
+    <t>Reunida con Fabian reciviendo indicaciones para realizar manual de ingreso de transitos migratorios</t>
+  </si>
+  <si>
+    <t>Realizando manual de ingreso de transitos migratorios</t>
+  </si>
+  <si>
+    <t>Realizando manual de ingreso de transitos migratorios(no terminado)</t>
+  </si>
+  <si>
+    <t>4:00-7:30</t>
+  </si>
+  <si>
+    <t>9:30-11:40</t>
+  </si>
+  <si>
+    <t>11:40-12:00</t>
+  </si>
+  <si>
+    <t>Reunión con fabian, andres y navid para orientarme manual de certificado AFIP</t>
+  </si>
+  <si>
+    <t>2:00-2:40</t>
+  </si>
+  <si>
+    <t>2:40-6:30</t>
+  </si>
+  <si>
+    <t>Realizando manual de certificado AFIP</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2560,11 +2608,19 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2982,14 +3038,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -3009,21 +3065,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -3032,14 +3088,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -3048,14 +3104,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -3064,14 +3120,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -3080,7 +3136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -3089,14 +3145,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -3105,14 +3161,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -3123,7 +3179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -3132,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -3141,7 +3197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3150,7 +3206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -3159,7 +3215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -3168,7 +3224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -3177,7 +3233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -3188,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -3197,7 +3253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -3206,7 +3262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3215,7 +3271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3224,7 +3280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3233,7 +3289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3242,7 +3298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3251,7 +3307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3260,7 +3316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3271,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3280,7 +3336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3289,7 +3345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3298,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3307,7 +3363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3316,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3325,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3334,7 +3390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3343,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3352,7 +3408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3361,7 +3417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3370,7 +3426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3379,7 +3435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3390,7 +3446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3399,7 +3455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3408,7 +3464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3417,7 +3473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3426,7 +3482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3435,7 +3491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3446,7 +3502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3455,7 +3511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3464,7 +3520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3473,7 +3529,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3482,7 +3538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3491,7 +3547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3502,7 +3558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3511,7 +3567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3520,7 +3576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3529,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3539,7 +3595,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3548,7 +3604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3559,7 +3615,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3568,7 +3624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3577,7 +3633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3588,7 +3644,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3597,7 +3653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3606,7 +3662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3617,7 +3673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3626,7 +3682,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3635,7 +3691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3644,7 +3700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3653,7 +3709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3662,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3671,7 +3727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3682,7 +3738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3691,7 +3747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3700,7 +3756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3711,7 +3767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3720,7 +3776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3729,7 +3785,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3755,14 +3811,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3784,7 +3840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3793,7 +3849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3802,7 +3858,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3813,7 +3869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3822,7 +3878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3831,7 +3887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3842,7 +3898,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3851,7 +3907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3860,7 +3916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3869,7 +3925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3878,7 +3934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -3887,7 +3943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -3898,7 +3954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -3907,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -3916,7 +3972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -3925,7 +3981,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -3934,7 +3990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -3943,7 +3999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -3952,7 +4008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -3961,7 +4017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -3972,7 +4028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -3981,7 +4037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -3990,7 +4046,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -3999,7 +4055,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -4008,7 +4064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -4019,7 +4075,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -4028,7 +4084,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -4037,7 +4093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -4046,7 +4102,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -4057,7 +4113,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -4066,7 +4122,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -4075,7 +4131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -4084,7 +4140,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -4095,7 +4151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -4104,7 +4160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -4113,7 +4169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -4122,7 +4178,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -4131,7 +4187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -4140,7 +4196,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -4151,7 +4207,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -4160,7 +4216,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -4169,7 +4225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -4178,7 +4234,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -4187,7 +4243,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -4196,7 +4252,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -4205,7 +4261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4216,7 +4272,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4225,7 +4281,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4234,7 +4290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4243,7 +4299,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4254,7 +4310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4263,7 +4319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4272,7 +4328,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4281,7 +4337,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4292,7 +4348,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4301,7 +4357,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4310,7 +4366,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4319,7 +4375,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4328,7 +4384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4339,7 +4395,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4348,7 +4404,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4357,7 +4413,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4366,7 +4422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4375,7 +4431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4386,7 +4442,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4395,7 +4451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4404,7 +4460,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4413,7 +4469,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4424,7 +4480,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4433,7 +4489,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4442,7 +4498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4451,7 +4507,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4460,7 +4516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4469,7 +4525,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4478,7 +4534,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4489,7 +4545,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4498,7 +4554,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4507,7 +4563,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4518,7 +4574,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4527,7 +4583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4536,7 +4592,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4545,7 +4601,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4554,7 +4610,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4563,7 +4619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4574,7 +4630,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4583,7 +4639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4592,7 +4648,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4603,7 +4659,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4612,7 +4668,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4621,7 +4677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4630,7 +4686,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4639,7 +4695,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4648,7 +4704,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4659,7 +4715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4668,7 +4724,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4677,7 +4733,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4686,7 +4742,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4695,7 +4751,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4704,7 +4760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4715,7 +4771,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4724,7 +4780,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4733,7 +4789,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4744,7 +4800,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4753,7 +4809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4775,14 +4831,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4793,7 +4849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4804,7 +4860,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4813,7 +4869,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4822,7 +4878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4831,7 +4887,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4840,7 +4896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4849,7 +4905,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4858,7 +4914,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4868,7 +4924,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4877,7 +4933,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -4888,7 +4944,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -4897,7 +4953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -4906,7 +4962,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -4915,7 +4971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -4926,7 +4982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -4935,7 +4991,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -4944,7 +5000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -4953,7 +5009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -4962,7 +5018,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -4971,7 +5027,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -4980,7 +5036,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -4991,7 +5047,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -5000,7 +5056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -5009,7 +5065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -5018,7 +5074,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -5029,7 +5085,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -5038,7 +5094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -5047,7 +5103,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -5056,7 +5112,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -5065,7 +5121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -5074,7 +5130,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -5083,7 +5139,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -5094,7 +5150,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -5103,7 +5159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -5112,7 +5168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -5121,7 +5177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -5132,7 +5188,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -5141,7 +5197,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -5150,7 +5206,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -5159,7 +5215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -5168,7 +5224,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -5177,7 +5233,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -5186,7 +5242,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -5197,7 +5253,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -5206,7 +5262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5215,7 +5271,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5224,7 +5280,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5233,7 +5289,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5242,7 +5298,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5253,7 +5309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5262,7 +5318,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5271,7 +5327,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5280,7 +5336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5289,7 +5345,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5298,7 +5354,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5309,7 +5365,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5318,7 +5374,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5327,7 +5383,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5336,7 +5392,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5346,7 +5402,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5355,7 +5411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5365,7 +5421,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5374,7 +5430,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5385,7 +5441,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5394,7 +5450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5403,7 +5459,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5414,7 +5470,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5423,7 +5479,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5433,7 +5489,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5442,7 +5498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5451,7 +5507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5461,7 +5517,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5470,7 +5526,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5479,7 +5535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5488,7 +5544,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5497,7 +5553,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5508,7 +5564,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5517,7 +5573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5527,7 +5583,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5537,7 +5593,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5546,7 +5602,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5555,7 +5611,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5566,7 +5622,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5575,7 +5631,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5584,7 +5640,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5593,7 +5649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5602,7 +5658,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5612,7 +5668,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5621,7 +5677,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5630,7 +5686,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5639,7 +5695,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5648,7 +5704,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5657,7 +5713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5668,7 +5724,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5677,7 +5733,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5686,7 +5742,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5695,7 +5751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5704,7 +5760,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5713,7 +5769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5722,7 +5778,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5733,7 +5789,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5742,7 +5798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5751,7 +5807,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5760,7 +5816,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5769,7 +5825,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5780,7 +5836,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5789,7 +5845,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5798,7 +5854,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5807,7 +5863,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5816,7 +5872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5825,7 +5881,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5834,7 +5890,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5843,7 +5899,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5853,7 +5909,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5864,7 +5920,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5873,7 +5929,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -5882,7 +5938,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -5891,7 +5947,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -5900,7 +5956,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -5909,7 +5965,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -5920,7 +5976,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -5929,7 +5985,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -5938,7 +5994,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -5947,7 +6003,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -5957,7 +6013,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -5967,7 +6023,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -5976,7 +6032,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -5985,7 +6041,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -5994,7 +6050,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -6006,7 +6062,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -6015,7 +6071,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -6024,7 +6080,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -6035,7 +6091,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -6044,7 +6100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -6062,20 +6118,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -6086,7 +6142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -6097,7 +6153,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -6106,7 +6162,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -6115,7 +6171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -6124,7 +6180,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -6135,7 +6191,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -6144,7 +6200,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -6153,7 +6209,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -6162,7 +6218,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -6171,7 +6227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -6180,7 +6236,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -6189,7 +6245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -6200,7 +6256,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -6209,7 +6265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6218,7 +6274,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6229,7 +6285,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6238,7 +6294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6247,7 +6303,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6258,7 +6314,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6267,7 +6323,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6276,7 +6332,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6287,7 +6343,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
@@ -6296,7 +6352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
@@ -6305,7 +6361,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6316,7 +6372,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6325,7 +6381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
@@ -6334,7 +6390,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="90"/>
       <c r="B28" s="98" t="s">
         <v>165</v>
@@ -6343,7 +6399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="94">
         <v>44967</v>
       </c>
@@ -6354,7 +6410,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="99" t="s">
         <v>507</v>
@@ -6363,7 +6419,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="91"/>
       <c r="B31" s="109" t="s">
         <v>508</v>
@@ -6372,7 +6428,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="94">
         <v>44970</v>
       </c>
@@ -6384,7 +6440,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
@@ -6393,7 +6449,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
@@ -6402,7 +6458,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
@@ -6411,7 +6467,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
@@ -6420,7 +6476,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
@@ -6429,7 +6485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
@@ -6438,7 +6494,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="114" t="s">
         <v>526</v>
@@ -6447,7 +6503,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
@@ -6456,7 +6512,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
@@ -6466,7 +6522,7 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91"/>
       <c r="B42" s="115" t="s">
         <v>529</v>
@@ -6475,7 +6531,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="94">
         <v>44971</v>
       </c>
@@ -6486,7 +6542,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="90"/>
       <c r="B44" s="107" t="s">
         <v>534</v>
@@ -6495,7 +6551,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="107" t="s">
         <v>536</v>
@@ -6504,7 +6560,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="107" t="s">
         <v>40</v>
@@ -6513,7 +6569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="91"/>
       <c r="B47" s="115" t="s">
         <v>537</v>
@@ -6522,7 +6578,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="94">
         <v>44972</v>
       </c>
@@ -6533,7 +6589,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
       <c r="B49" s="107" t="s">
         <v>541</v>
@@ -6542,7 +6598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="91"/>
       <c r="B50" s="115" t="s">
         <v>542</v>
@@ -6551,7 +6607,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="94">
         <v>44973</v>
       </c>
@@ -6562,7 +6618,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="107" t="s">
         <v>544</v>
@@ -6571,7 +6627,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="91"/>
       <c r="B53" s="115" t="s">
         <v>546</v>
@@ -6580,7 +6636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="94">
         <v>44974</v>
       </c>
@@ -6592,7 +6648,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="107" t="s">
         <v>149</v>
@@ -6601,7 +6657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="91"/>
       <c r="B56" s="115" t="s">
         <v>489</v>
@@ -6610,7 +6666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="94">
         <v>44979</v>
       </c>
@@ -6621,7 +6677,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="107" t="s">
         <v>149</v>
@@ -6630,7 +6686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="107" t="s">
         <v>551</v>
@@ -6639,7 +6695,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="91"/>
       <c r="B60" s="115" t="s">
         <v>410</v>
@@ -6648,7 +6704,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="94">
         <v>44980</v>
       </c>
@@ -6659,7 +6715,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="107" t="s">
         <v>557</v>
@@ -6668,7 +6724,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="107" t="s">
         <v>559</v>
@@ -6677,7 +6733,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="B64" s="107" t="s">
         <v>560</v>
@@ -6686,7 +6742,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="107" t="s">
         <v>184</v>
@@ -6695,7 +6751,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="107" t="s">
         <v>40</v>
@@ -6704,7 +6760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="91"/>
       <c r="B67" s="115" t="s">
         <v>537</v>
@@ -6713,48 +6769,178 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="117">
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="94">
         <v>44981</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="116" t="s">
         <v>447</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C68" s="95" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="107" t="s">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="90"/>
+      <c r="B69" s="117" t="s">
         <v>565</v>
       </c>
-      <c r="C69" s="119" t="s">
+      <c r="C69" s="96" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="107" t="s">
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="90"/>
+      <c r="B70" s="117" t="s">
         <v>567</v>
       </c>
-      <c r="C70" s="119" t="s">
+      <c r="C70" s="96" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="107" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="90"/>
+      <c r="B71" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="119" t="s">
+      <c r="C71" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="107" t="s">
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="91"/>
+      <c r="B72" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="105" t="s">
         <v>568</v>
       </c>
+    </row>
+    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="94">
+        <v>44984</v>
+      </c>
+      <c r="B73" s="116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="90"/>
+      <c r="B74" s="117" t="s">
+        <v>571</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="90"/>
+      <c r="B75" s="117" t="s">
+        <v>572</v>
+      </c>
+      <c r="C75" s="118" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="90"/>
+      <c r="B76" s="117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C76" s="118" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="90"/>
+      <c r="B77" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="90"/>
+      <c r="B78" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="118" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="91"/>
+      <c r="B79" s="115" t="s">
+        <v>578</v>
+      </c>
+      <c r="C79" s="119" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="94">
+        <v>44985</v>
+      </c>
+      <c r="B80" s="121" t="s">
+        <v>579</v>
+      </c>
+      <c r="C80" s="122" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="90"/>
+      <c r="B81" s="120" t="s">
+        <v>580</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="90"/>
+      <c r="B82" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="118" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="90"/>
+      <c r="B83" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="90"/>
+      <c r="B84" s="120" t="s">
+        <v>582</v>
+      </c>
+      <c r="C84" s="118" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="90"/>
+      <c r="B85" s="120" t="s">
+        <v>583</v>
+      </c>
+      <c r="C85" s="118" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="91"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9A12D-EB21-4CDD-9F5E-8C1A8483DB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EBCFA-026E-4FA6-8D80-C6BF2A021441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="608">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1794,6 +1794,75 @@
   </si>
   <si>
     <t>Realizando manual de certificado AFIP</t>
+  </si>
+  <si>
+    <t>8:30-9:55</t>
+  </si>
+  <si>
+    <t>Pruebas en torino agregando validaciones de estados a los servicios MatchDocumentBcbp y GetModifiedTracking</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E)</t>
+  </si>
+  <si>
+    <t>9:55-10:40</t>
+  </si>
+  <si>
+    <t>Actualizacion de documento Manual para ingreso de transitos migratorios V2</t>
+  </si>
+  <si>
+    <t>10:40:00-11:00</t>
+  </si>
+  <si>
+    <t>11:00-11:24</t>
+  </si>
+  <si>
+    <t>Reunion con fabian andres y navid para actualizar manual de certificado AFIP</t>
+  </si>
+  <si>
+    <t>11:24-12:35</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Pruebas al servicio SetDNM</t>
+  </si>
+  <si>
+    <t>12:35-1:35</t>
+  </si>
+  <si>
+    <t>1:35-2:35</t>
+  </si>
+  <si>
+    <t>2:35-5:35</t>
+  </si>
+  <si>
+    <t>8:35-10:00</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). ProcessPocEmbarkPassenger</t>
+  </si>
+  <si>
+    <t>Con Fabricio haciendo maching de pasajeros para pruebas de embarque biometrico</t>
+  </si>
+  <si>
+    <t>11:00-1:30</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). ProcessDocumentEmbarkPassenger(no terminado)</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). ProcessDocumentEmbarkPassenger y MatchDocumentBcbp</t>
+  </si>
+  <si>
+    <t>9:30-1:20</t>
+  </si>
+  <si>
+    <t>1:20-2:20</t>
+  </si>
+  <si>
+    <t>2:20-6:30</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). ProcessDocumentEmbarkPassenger y MatchDocumentBcbp y actualizando json(no terminado)</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2608,19 +2677,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6118,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6782,7 +6845,7 @@
     </row>
     <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
-      <c r="B69" s="117" t="s">
+      <c r="B69" s="107" t="s">
         <v>565</v>
       </c>
       <c r="C69" s="96" t="s">
@@ -6791,7 +6854,7 @@
     </row>
     <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="107" t="s">
         <v>567</v>
       </c>
       <c r="C70" s="96" t="s">
@@ -6800,7 +6863,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
-      <c r="B71" s="117" t="s">
+      <c r="B71" s="107" t="s">
         <v>149</v>
       </c>
       <c r="C71" s="96" t="s">
@@ -6829,7 +6892,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="107" t="s">
         <v>571</v>
       </c>
       <c r="C74" s="96" t="s">
@@ -6838,37 +6901,37 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="C75" s="118" t="s">
+      <c r="C75" s="96" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
-      <c r="B76" s="117" t="s">
+      <c r="B76" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="C76" s="118" t="s">
+      <c r="C76" s="96" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="118" t="s">
+      <c r="C77" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C78" s="118" t="s">
+      <c r="C78" s="96" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6877,7 +6940,7 @@
       <c r="B79" s="115" t="s">
         <v>578</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="105" t="s">
         <v>577</v>
       </c>
     </row>
@@ -6885,62 +6948,205 @@
       <c r="A80" s="94">
         <v>44985</v>
       </c>
-      <c r="B80" s="121" t="s">
+      <c r="B80" s="116" t="s">
         <v>579</v>
       </c>
-      <c r="C80" s="122" t="s">
+      <c r="C80" s="95" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
-      <c r="B81" s="120" t="s">
+      <c r="B81" s="107" t="s">
         <v>580</v>
       </c>
-      <c r="C81" s="118" t="s">
+      <c r="C81" s="96" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="118" t="s">
+      <c r="C82" s="96" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="90"/>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="118" t="s">
+      <c r="C83" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
-      <c r="B84" s="120" t="s">
+      <c r="B84" s="107" t="s">
         <v>582</v>
       </c>
-      <c r="C84" s="118" t="s">
+      <c r="C84" s="96" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="120" t="s">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="91"/>
+      <c r="B85" s="115" t="s">
         <v>583</v>
       </c>
-      <c r="C85" s="118" t="s">
+      <c r="C85" s="105" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="91"/>
-      <c r="B86" s="123"/>
-      <c r="C86" s="119"/>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="94">
+        <v>44986</v>
+      </c>
+      <c r="B86" s="116" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="95" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="90"/>
+      <c r="B87" s="107" t="s">
+        <v>588</v>
+      </c>
+      <c r="C87" s="96" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="90"/>
+      <c r="B88" s="107" t="s">
+        <v>590</v>
+      </c>
+      <c r="C88" s="96" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="90"/>
+      <c r="B89" s="107" t="s">
+        <v>591</v>
+      </c>
+      <c r="C89" s="96" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="90"/>
+      <c r="B90" s="107" t="s">
+        <v>593</v>
+      </c>
+      <c r="C90" s="96" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="90"/>
+      <c r="B91" s="107" t="s">
+        <v>595</v>
+      </c>
+      <c r="C91" s="96" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="90"/>
+      <c r="B92" s="107" t="s">
+        <v>596</v>
+      </c>
+      <c r="C92" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="91"/>
+      <c r="B93" s="115" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="94">
+        <v>44987</v>
+      </c>
+      <c r="B94" s="116" t="s">
+        <v>598</v>
+      </c>
+      <c r="C94" s="95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="107" t="s">
+        <v>557</v>
+      </c>
+      <c r="C95" s="96" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="90"/>
+      <c r="B96" s="107" t="s">
+        <v>601</v>
+      </c>
+      <c r="C96" s="96" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="90"/>
+      <c r="B97" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="91"/>
+      <c r="B98" s="115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C98" s="105" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="117">
+        <v>44988</v>
+      </c>
+      <c r="B99" s="107" t="s">
+        <v>604</v>
+      </c>
+      <c r="C99" s="118" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="107" t="s">
+        <v>605</v>
+      </c>
+      <c r="C100" s="119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="107" t="s">
+        <v>606</v>
+      </c>
+      <c r="C101" s="118" t="s">
+        <v>607</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EBCFA-026E-4FA6-8D80-C6BF2A021441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8C3A5-E5C8-4876-A021-D4C3F17F8B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="610">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1863,6 +1863,12 @@
   </si>
   <si>
     <t>Integración de pruebas(E2E). ProcessDocumentEmbarkPassenger y MatchDocumentBcbp y actualizando json(no terminado)</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(me quede en la iteracion 43)</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2677,11 +2683,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3101,14 +3104,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -3128,21 +3131,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -3151,14 +3154,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -3167,14 +3170,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -3183,14 +3186,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -3208,14 +3211,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -3224,14 +3227,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -3251,7 +3254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -3260,7 +3263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3269,7 +3272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -3278,7 +3281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -3287,7 +3290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -3296,7 +3299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -3316,7 +3319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -3325,7 +3328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3334,7 +3337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3343,7 +3346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3352,7 +3355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3361,7 +3364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3370,7 +3373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3379,7 +3382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3399,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3408,7 +3411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3417,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3426,7 +3429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3435,7 +3438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3444,7 +3447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3453,7 +3456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3462,7 +3465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3471,7 +3474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3480,7 +3483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3489,7 +3492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3498,7 +3501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3518,7 +3521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3527,7 +3530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3536,7 +3539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3545,7 +3548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3554,7 +3557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3574,7 +3577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3583,7 +3586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3592,7 +3595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3601,7 +3604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3610,7 +3613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3630,7 +3633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3639,7 +3642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3648,7 +3651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3658,7 +3661,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3667,7 +3670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3687,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3696,7 +3699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3716,7 +3719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3725,7 +3728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3745,7 +3748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3754,7 +3757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3763,7 +3766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3772,7 +3775,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3781,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3790,7 +3793,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3810,7 +3813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3819,7 +3822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3839,7 +3842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3848,7 +3851,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3874,14 +3877,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3912,7 +3915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3921,7 +3924,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3941,7 +3944,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3950,7 +3953,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3970,7 +3973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3979,7 +3982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3988,7 +3991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -3997,7 +4000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -4006,7 +4009,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -4026,7 +4029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -4035,7 +4038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -4044,7 +4047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -4053,7 +4056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -4062,7 +4065,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -4071,7 +4074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -4080,7 +4083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -4100,7 +4103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -4109,7 +4112,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -4118,7 +4121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -4127,7 +4130,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -4147,7 +4150,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -4156,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -4165,7 +4168,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -4185,7 +4188,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -4194,7 +4197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -4203,7 +4206,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -4223,7 +4226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -4232,7 +4235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -4241,7 +4244,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -4250,7 +4253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -4259,7 +4262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -4279,7 +4282,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -4288,7 +4291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -4297,7 +4300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -4306,7 +4309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -4315,7 +4318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -4324,7 +4327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4344,7 +4347,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4353,7 +4356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4362,7 +4365,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4382,7 +4385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4391,7 +4394,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4400,7 +4403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4420,7 +4423,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4429,7 +4432,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4438,7 +4441,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4447,7 +4450,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4467,7 +4470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4476,7 +4479,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4485,7 +4488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4494,7 +4497,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4514,7 +4517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4523,7 +4526,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4532,7 +4535,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4552,7 +4555,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4561,7 +4564,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4570,7 +4573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4579,7 +4582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4588,7 +4591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4597,7 +4600,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4617,7 +4620,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4626,7 +4629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4646,7 +4649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4655,7 +4658,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4664,7 +4667,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4673,7 +4676,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4682,7 +4685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4702,7 +4705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4711,7 +4714,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4731,7 +4734,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4740,7 +4743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4749,7 +4752,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4758,7 +4761,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4767,7 +4770,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4787,7 +4790,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4796,7 +4799,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4805,7 +4808,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4814,7 +4817,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4823,7 +4826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4843,7 +4846,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4852,7 +4855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4872,7 +4875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4894,14 +4897,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4932,7 +4935,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4941,7 +4944,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4950,7 +4953,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4959,7 +4962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4968,7 +4971,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4977,7 +4980,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4987,7 +4990,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4996,7 +4999,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -5016,7 +5019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -5025,7 +5028,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -5034,7 +5037,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -5054,7 +5057,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -5063,7 +5066,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -5072,7 +5075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -5081,7 +5084,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -5090,7 +5093,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -5099,7 +5102,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -5119,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -5128,7 +5131,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -5137,7 +5140,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -5157,7 +5160,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -5166,7 +5169,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -5175,7 +5178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -5184,7 +5187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -5193,7 +5196,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -5202,7 +5205,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -5222,7 +5225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -5231,7 +5234,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -5240,7 +5243,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -5260,7 +5263,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -5269,7 +5272,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -5278,7 +5281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -5287,7 +5290,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -5296,7 +5299,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -5305,7 +5308,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -5325,7 +5328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5334,7 +5337,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5343,7 +5346,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5352,7 +5355,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5361,7 +5364,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5381,7 +5384,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5390,7 +5393,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5399,7 +5402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5408,7 +5411,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5417,7 +5420,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5437,7 +5440,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5446,7 +5449,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5455,7 +5458,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5465,7 +5468,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5474,7 +5477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5493,7 +5496,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5513,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5522,7 +5525,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5542,7 +5545,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5552,7 +5555,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5561,7 +5564,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5570,7 +5573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5580,7 +5583,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5589,7 +5592,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5598,7 +5601,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5607,7 +5610,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5616,7 +5619,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5636,7 +5639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5646,7 +5649,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5656,7 +5659,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5665,7 +5668,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5674,7 +5677,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5694,7 +5697,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5703,7 +5706,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5712,7 +5715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5721,7 +5724,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5731,7 +5734,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5740,7 +5743,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5749,7 +5752,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5758,7 +5761,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5767,7 +5770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5776,7 +5779,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5796,7 +5799,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5805,7 +5808,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5814,7 +5817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5823,7 +5826,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5832,7 +5835,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5841,7 +5844,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5861,7 +5864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5870,7 +5873,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5879,7 +5882,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5888,7 +5891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5908,7 +5911,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5917,7 +5920,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5926,7 +5929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5935,7 +5938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5944,7 +5947,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5953,7 +5956,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5962,7 +5965,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5972,7 +5975,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5992,7 +5995,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -6001,7 +6004,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -6010,7 +6013,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -6019,7 +6022,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -6028,7 +6031,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -6048,7 +6051,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -6057,7 +6060,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -6066,7 +6069,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -6076,7 +6079,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -6086,7 +6089,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -6095,7 +6098,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -6104,7 +6107,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -6113,7 +6116,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -6125,7 +6128,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -6134,7 +6137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -6143,7 +6146,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -6163,7 +6166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -6181,20 +6184,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -6225,7 +6228,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -6234,7 +6237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -6243,7 +6246,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -6263,7 +6266,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -6272,7 +6275,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -6281,7 +6284,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -6290,7 +6293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -6299,7 +6302,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -6308,7 +6311,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -6328,7 +6331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6337,7 +6340,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6357,7 +6360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6366,7 +6369,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6386,7 +6389,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6395,7 +6398,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
@@ -6415,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
@@ -6424,7 +6427,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6444,7 +6447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
@@ -6453,7 +6456,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="98" t="s">
         <v>165</v>
@@ -6462,7 +6465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="94">
         <v>44967</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="99" t="s">
         <v>507</v>
@@ -6482,7 +6485,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91"/>
       <c r="B31" s="109" t="s">
         <v>508</v>
@@ -6491,7 +6494,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="94">
         <v>44970</v>
       </c>
@@ -6503,7 +6506,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
@@ -6512,7 +6515,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
@@ -6521,7 +6524,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
@@ -6530,7 +6533,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
@@ -6539,7 +6542,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
@@ -6548,7 +6551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
@@ -6557,7 +6560,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="90"/>
       <c r="B39" s="114" t="s">
         <v>526</v>
@@ -6566,7 +6569,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
@@ -6575,7 +6578,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
@@ -6585,7 +6588,7 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91"/>
       <c r="B42" s="115" t="s">
         <v>529</v>
@@ -6594,7 +6597,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>44971</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="90"/>
       <c r="B44" s="107" t="s">
         <v>534</v>
@@ -6614,7 +6617,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="90"/>
       <c r="B45" s="107" t="s">
         <v>536</v>
@@ -6623,7 +6626,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="90"/>
       <c r="B46" s="107" t="s">
         <v>40</v>
@@ -6632,7 +6635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="91"/>
       <c r="B47" s="115" t="s">
         <v>537</v>
@@ -6641,7 +6644,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="94">
         <v>44972</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="90"/>
       <c r="B49" s="107" t="s">
         <v>541</v>
@@ -6661,7 +6664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="91"/>
       <c r="B50" s="115" t="s">
         <v>542</v>
@@ -6670,7 +6673,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="94">
         <v>44973</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="90"/>
       <c r="B52" s="107" t="s">
         <v>544</v>
@@ -6690,7 +6693,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="91"/>
       <c r="B53" s="115" t="s">
         <v>546</v>
@@ -6699,7 +6702,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="94">
         <v>44974</v>
       </c>
@@ -6711,7 +6714,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="90"/>
       <c r="B55" s="107" t="s">
         <v>149</v>
@@ -6720,7 +6723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="91"/>
       <c r="B56" s="115" t="s">
         <v>489</v>
@@ -6729,7 +6732,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="94">
         <v>44979</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="90"/>
       <c r="B58" s="107" t="s">
         <v>149</v>
@@ -6749,7 +6752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="90"/>
       <c r="B59" s="107" t="s">
         <v>551</v>
@@ -6758,7 +6761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="91"/>
       <c r="B60" s="115" t="s">
         <v>410</v>
@@ -6767,7 +6770,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="94">
         <v>44980</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="90"/>
       <c r="B62" s="107" t="s">
         <v>557</v>
@@ -6787,7 +6790,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
       <c r="B63" s="107" t="s">
         <v>559</v>
@@ -6796,7 +6799,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="90"/>
       <c r="B64" s="107" t="s">
         <v>560</v>
@@ -6805,7 +6808,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="90"/>
       <c r="B65" s="107" t="s">
         <v>184</v>
@@ -6814,7 +6817,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="90"/>
       <c r="B66" s="107" t="s">
         <v>40</v>
@@ -6823,7 +6826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="91"/>
       <c r="B67" s="115" t="s">
         <v>537</v>
@@ -6832,7 +6835,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="94">
         <v>44981</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="B69" s="107" t="s">
         <v>565</v>
@@ -6852,7 +6855,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="B70" s="107" t="s">
         <v>567</v>
@@ -6861,7 +6864,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="90"/>
       <c r="B71" s="107" t="s">
         <v>149</v>
@@ -6870,7 +6873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91"/>
       <c r="B72" s="115" t="s">
         <v>150</v>
@@ -6879,7 +6882,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="94">
         <v>44984</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="90"/>
       <c r="B74" s="107" t="s">
         <v>571</v>
@@ -6899,7 +6902,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="90"/>
       <c r="B75" s="107" t="s">
         <v>572</v>
@@ -6908,7 +6911,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="90"/>
       <c r="B76" s="107" t="s">
         <v>574</v>
@@ -6917,7 +6920,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="90"/>
       <c r="B77" s="107" t="s">
         <v>40</v>
@@ -6926,7 +6929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="90"/>
       <c r="B78" s="107" t="s">
         <v>212</v>
@@ -6935,7 +6938,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="91"/>
       <c r="B79" s="115" t="s">
         <v>578</v>
@@ -6944,7 +6947,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="94">
         <v>44985</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="90"/>
       <c r="B81" s="107" t="s">
         <v>580</v>
@@ -6964,7 +6967,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="90"/>
       <c r="B82" s="107" t="s">
         <v>184</v>
@@ -6973,7 +6976,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="90"/>
       <c r="B83" s="107" t="s">
         <v>40</v>
@@ -6982,7 +6985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="90"/>
       <c r="B84" s="107" t="s">
         <v>582</v>
@@ -6991,7 +6994,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="91"/>
       <c r="B85" s="115" t="s">
         <v>583</v>
@@ -7000,7 +7003,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="94">
         <v>44986</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="90"/>
       <c r="B87" s="107" t="s">
         <v>588</v>
@@ -7020,7 +7023,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="90"/>
       <c r="B88" s="107" t="s">
         <v>590</v>
@@ -7029,7 +7032,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="90"/>
       <c r="B89" s="107" t="s">
         <v>591</v>
@@ -7038,7 +7041,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="90"/>
       <c r="B90" s="107" t="s">
         <v>593</v>
@@ -7047,7 +7050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="90"/>
       <c r="B91" s="107" t="s">
         <v>595</v>
@@ -7056,7 +7059,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="90"/>
       <c r="B92" s="107" t="s">
         <v>596</v>
@@ -7065,7 +7068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="91"/>
       <c r="B93" s="115" t="s">
         <v>597</v>
@@ -7074,7 +7077,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="94">
         <v>44987</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="90"/>
       <c r="B95" s="107" t="s">
         <v>557</v>
@@ -7094,7 +7097,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="90"/>
       <c r="B96" s="107" t="s">
         <v>601</v>
@@ -7103,7 +7106,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="90"/>
       <c r="B97" s="107" t="s">
         <v>149</v>
@@ -7112,7 +7115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="91"/>
       <c r="B98" s="115" t="s">
         <v>489</v>
@@ -7121,31 +7124,62 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="117">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="94">
         <v>44988</v>
       </c>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="116" t="s">
         <v>604</v>
       </c>
-      <c r="C99" s="118" t="s">
+      <c r="C99" s="95" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="107" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="90"/>
+      <c r="B100" s="117" t="s">
         <v>605</v>
       </c>
-      <c r="C100" s="119" t="s">
+      <c r="C100" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B101" s="107" t="s">
+    <row r="101" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="90"/>
+      <c r="B101" s="117" t="s">
         <v>606</v>
       </c>
-      <c r="C101" s="118" t="s">
+      <c r="C101" s="96" t="s">
         <v>607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="94">
+        <v>44991</v>
+      </c>
+      <c r="B102" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" s="95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="90"/>
+      <c r="B103" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="91"/>
+      <c r="B104" s="115" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="105" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8C3A5-E5C8-4876-A021-D4C3F17F8B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FFEF7-FA64-4293-B542-FF997A0370D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="615">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1869,6 +1869,21 @@
   </si>
   <si>
     <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(me quede en la iteracion 43)</t>
+  </si>
+  <si>
+    <t>10:43-11:33</t>
+  </si>
+  <si>
+    <t>Investigando que plan de postman es mejor para comprar</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(me quede en la iteracion 48)</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(me quede en la iteracion 63)</t>
+  </si>
+  <si>
+    <t>11:30-1:40</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2683,10 +2698,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3104,14 +3121,14 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3122,7 +3139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44872</v>
       </c>
@@ -3131,21 +3148,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44873</v>
       </c>
@@ -3154,14 +3171,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>44874</v>
       </c>
@@ -3170,14 +3187,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>44875</v>
       </c>
@@ -3186,14 +3203,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>44876</v>
       </c>
@@ -3202,7 +3219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>44879</v>
       </c>
@@ -3211,14 +3228,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44880</v>
       </c>
@@ -3227,14 +3244,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44881</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -3254,7 +3271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -3263,7 +3280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3272,7 +3289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
@@ -3281,7 +3298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>35</v>
@@ -3290,7 +3307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -3299,7 +3316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44882</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>40</v>
@@ -3319,7 +3336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
@@ -3328,7 +3345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3337,7 +3354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3346,7 +3363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
@@ -3355,7 +3372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
@@ -3364,7 +3381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
@@ -3373,7 +3390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
         <v>52</v>
@@ -3382,7 +3399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>44883</v>
       </c>
@@ -3393,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3402,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -3411,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -3420,7 +3437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -3429,7 +3446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="8" t="s">
         <v>13</v>
@@ -3438,7 +3455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
@@ -3447,7 +3464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>17</v>
@@ -3456,7 +3473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
@@ -3465,7 +3482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -3474,7 +3491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>25</v>
@@ -3483,7 +3500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>23</v>
@@ -3492,7 +3509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="23" t="s">
         <v>27</v>
@@ -3501,7 +3518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44886</v>
       </c>
@@ -3512,7 +3529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3521,7 +3538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="14" t="s">
         <v>71</v>
@@ -3530,7 +3547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="14" t="s">
         <v>73</v>
@@ -3539,7 +3556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
@@ -3548,7 +3565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>77</v>
@@ -3557,7 +3574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44887</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="8" t="s">
         <v>80</v>
@@ -3577,7 +3594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="14" t="s">
         <v>83</v>
@@ -3586,7 +3603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="14" t="s">
         <v>85</v>
@@ -3595,7 +3612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="29" t="s">
         <v>84</v>
@@ -3604,7 +3621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
       <c r="B56" s="23" t="s">
         <v>96</v>
@@ -3613,7 +3630,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>44888</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10" t="s">
         <v>90</v>
@@ -3633,7 +3650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
         <v>92</v>
@@ -3642,7 +3659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="14" t="s">
         <v>94</v>
@@ -3651,7 +3668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="14" t="s">
         <v>98</v>
@@ -3661,7 +3678,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="34" t="s">
         <v>100</v>
@@ -3670,7 +3687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>44889</v>
       </c>
@@ -3681,7 +3698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
@@ -3690,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>104</v>
@@ -3699,7 +3716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44890</v>
       </c>
@@ -3710,7 +3727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="10" t="s">
         <v>40</v>
@@ -3719,7 +3736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="23" t="s">
         <v>106</v>
@@ -3728,7 +3745,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44893</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10" t="s">
         <v>109</v>
@@ -3748,7 +3765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="10" t="s">
         <v>111</v>
@@ -3757,7 +3774,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>114</v>
@@ -3766,7 +3783,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>115</v>
@@ -3775,7 +3792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>117</v>
@@ -3784,7 +3801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="44" t="s">
         <v>118</v>
@@ -3793,7 +3810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>44894</v>
       </c>
@@ -3804,7 +3821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>122</v>
@@ -3813,7 +3830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="23" t="s">
         <v>123</v>
@@ -3822,7 +3839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>44895</v>
       </c>
@@ -3833,7 +3850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
         <v>126</v>
@@ -3842,7 +3859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6" t="s">
         <v>127</v>
@@ -3851,7 +3868,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="14" t="s">
         <v>128</v>
@@ -3877,14 +3894,14 @@
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44896</v>
       </c>
@@ -3906,7 +3923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>132</v>
@@ -3915,7 +3932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>133</v>
@@ -3924,7 +3941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44897</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>137</v>
@@ -3944,7 +3961,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
         <v>139</v>
@@ -3953,7 +3970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="49">
         <v>44900</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>143</v>
@@ -3973,7 +3990,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>145</v>
@@ -3982,7 +3999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>147</v>
@@ -3991,7 +4008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>149</v>
@@ -4000,7 +4017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
         <v>150</v>
@@ -4009,7 +4026,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>44901</v>
       </c>
@@ -4020,7 +4037,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>154</v>
@@ -4029,7 +4046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>155</v>
@@ -4038,7 +4055,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>157</v>
@@ -4047,7 +4064,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>159</v>
@@ -4056,7 +4073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="54" t="s">
         <v>161</v>
@@ -4065,7 +4082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="57" t="s">
         <v>163</v>
@@ -4074,7 +4091,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
         <v>165</v>
@@ -4083,7 +4100,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>44172</v>
       </c>
@@ -4094,7 +4111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="58" t="s">
         <v>169</v>
@@ -4103,7 +4120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="57" t="s">
         <v>170</v>
@@ -4112,7 +4129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>172</v>
@@ -4121,7 +4138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="23" t="s">
         <v>174</v>
@@ -4130,7 +4147,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>44903</v>
       </c>
@@ -4141,7 +4158,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>177</v>
@@ -4150,7 +4167,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
         <v>179</v>
@@ -4159,7 +4176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="23" t="s">
         <v>180</v>
@@ -4168,7 +4185,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>44904</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="61" t="s">
         <v>184</v>
@@ -4188,7 +4205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="53"/>
       <c r="B33" s="54" t="s">
         <v>40</v>
@@ -4197,7 +4214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="34" t="s">
         <v>186</v>
@@ -4206,7 +4223,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>44177</v>
       </c>
@@ -4217,7 +4234,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="8" t="s">
         <v>40</v>
@@ -4226,7 +4243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>190</v>
@@ -4235,7 +4252,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>192</v>
@@ -4244,7 +4261,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>194</v>
@@ -4253,7 +4270,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56"/>
       <c r="B40" s="58" t="s">
         <v>196</v>
@@ -4262,7 +4279,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>44908</v>
       </c>
@@ -4273,7 +4290,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>200</v>
@@ -4282,7 +4299,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="58" t="s">
         <v>202</v>
@@ -4291,7 +4308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
         <v>203</v>
@@ -4300,7 +4317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>204</v>
@@ -4309,7 +4326,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
         <v>206</v>
@@ -4318,7 +4335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="23" t="s">
         <v>208</v>
@@ -4327,7 +4344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>44909</v>
       </c>
@@ -4338,7 +4355,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="8" t="s">
         <v>184</v>
@@ -4347,7 +4364,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="8" t="s">
         <v>40</v>
@@ -4356,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="23" t="s">
         <v>186</v>
@@ -4365,7 +4382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44910</v>
       </c>
@@ -4376,7 +4393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="53"/>
       <c r="B53" s="54" t="s">
         <v>40</v>
@@ -4385,7 +4402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="58" t="s">
         <v>212</v>
@@ -4394,7 +4411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="23" t="s">
         <v>165</v>
@@ -4403,7 +4420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>44911</v>
       </c>
@@ -4414,7 +4431,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
         <v>214</v>
@@ -4423,7 +4440,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
         <v>216</v>
@@ -4432,7 +4449,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
         <v>212</v>
@@ -4441,7 +4458,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="56"/>
       <c r="B60" s="58" t="s">
         <v>165</v>
@@ -4450,7 +4467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>44914</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="57" t="s">
         <v>218</v>
@@ -4470,7 +4487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="66" t="s">
         <v>220</v>
@@ -4479,7 +4496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="8" t="s">
         <v>222</v>
@@ -4488,7 +4505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="34" t="s">
         <v>223</v>
@@ -4497,7 +4514,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="69">
         <v>44915</v>
       </c>
@@ -4508,7 +4525,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
         <v>40</v>
@@ -4517,7 +4534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="58" t="s">
         <v>212</v>
@@ -4526,7 +4543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="23" t="s">
         <v>165</v>
@@ -4535,7 +4552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>44916</v>
       </c>
@@ -4546,7 +4563,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
         <v>228</v>
@@ -4555,7 +4572,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>230</v>
@@ -4564,7 +4581,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>232</v>
@@ -4573,7 +4590,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
         <v>40</v>
@@ -4582,7 +4599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="57" t="s">
         <v>234</v>
@@ -4591,7 +4608,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
       <c r="B76" s="58" t="s">
         <v>236</v>
@@ -4600,7 +4617,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>44917</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="8" t="s">
         <v>238</v>
@@ -4620,7 +4637,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18"/>
       <c r="B79" s="23" t="s">
         <v>150</v>
@@ -4629,7 +4646,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>44918</v>
       </c>
@@ -4640,7 +4657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="68" t="s">
         <v>243</v>
@@ -4649,7 +4666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>244</v>
@@ -4658,7 +4675,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="8" t="s">
         <v>246</v>
@@ -4667,7 +4684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
         <v>248</v>
@@ -4676,7 +4693,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="56"/>
       <c r="B85" s="58" t="s">
         <v>249</v>
@@ -4685,7 +4702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>44921</v>
       </c>
@@ -4696,7 +4713,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
         <v>40</v>
@@ -4705,7 +4722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="56"/>
       <c r="B88" s="57" t="s">
         <v>251</v>
@@ -4714,7 +4731,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>44922</v>
       </c>
@@ -4725,7 +4742,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
         <v>253</v>
@@ -4734,7 +4751,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="8" t="s">
         <v>255</v>
@@ -4743,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="57" t="s">
         <v>256</v>
@@ -4752,7 +4769,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="8" t="s">
         <v>258</v>
@@ -4761,7 +4778,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="23" t="s">
         <v>260</v>
@@ -4770,7 +4787,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>44923</v>
       </c>
@@ -4781,7 +4798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>184</v>
@@ -4790,7 +4807,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="8" t="s">
         <v>40</v>
@@ -4799,7 +4816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>266</v>
@@ -4808,7 +4825,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6" t="s">
         <v>268</v>
@@ -4817,7 +4834,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="23" t="s">
         <v>165</v>
@@ -4826,7 +4843,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>44924</v>
       </c>
@@ -4837,7 +4854,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -4846,7 +4863,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="23" t="s">
         <v>165</v>
@@ -4855,7 +4872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>44925</v>
       </c>
@@ -4866,7 +4883,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="8" t="s">
         <v>149</v>
@@ -4875,7 +4892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6" t="s">
         <v>273</v>
@@ -4897,14 +4914,14 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -4915,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="74">
         <v>44928</v>
       </c>
@@ -4926,7 +4943,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>277</v>
@@ -4935,7 +4952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="48" t="s">
         <v>279</v>
@@ -4944,7 +4961,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>281</v>
@@ -4953,7 +4970,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="71" t="s">
         <v>282</v>
@@ -4962,7 +4979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>285</v>
@@ -4971,7 +4988,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="70" t="s">
         <v>283</v>
@@ -4980,7 +4997,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="71" t="s">
         <v>289</v>
@@ -4990,7 +5007,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
       <c r="B10" s="84" t="s">
         <v>290</v>
@@ -4999,7 +5016,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
         <v>44929</v>
       </c>
@@ -5010,7 +5027,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="70" t="s">
         <v>149</v>
@@ -5019,7 +5036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="86" t="s">
         <v>294</v>
@@ -5028,7 +5045,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100"/>
       <c r="B14" s="97" t="s">
         <v>165</v>
@@ -5037,7 +5054,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="94">
         <v>44930</v>
       </c>
@@ -5048,7 +5065,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="98" t="s">
         <v>298</v>
@@ -5057,7 +5074,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>301</v>
@@ -5066,7 +5083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
       <c r="B18" s="98" t="s">
         <v>132</v>
@@ -5075,7 +5092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="98" t="s">
         <v>303</v>
@@ -5084,7 +5101,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>304</v>
@@ -5093,7 +5110,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
       <c r="B21" s="99" t="s">
         <v>307</v>
@@ -5102,7 +5119,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44931</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>184</v>
@@ -5122,7 +5139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="98" t="s">
         <v>311</v>
@@ -5131,7 +5148,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="103" t="s">
         <v>165</v>
@@ -5140,7 +5157,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="94">
         <v>44935</v>
       </c>
@@ -5151,7 +5168,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="98" t="s">
         <v>315</v>
@@ -5160,7 +5177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="90"/>
       <c r="B28" s="99" t="s">
         <v>317</v>
@@ -5169,7 +5186,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
       <c r="B29" s="99" t="s">
         <v>318</v>
@@ -5178,7 +5195,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="98" t="s">
         <v>149</v>
@@ -5187,7 +5204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="99" t="s">
         <v>320</v>
@@ -5196,7 +5213,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="103" t="s">
         <v>321</v>
@@ -5205,7 +5222,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="94">
         <v>44936</v>
       </c>
@@ -5216,7 +5233,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="98" t="s">
         <v>132</v>
@@ -5225,7 +5242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>325</v>
@@ -5234,7 +5251,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="90"/>
       <c r="B36" s="99" t="s">
         <v>249</v>
@@ -5243,7 +5260,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="94">
         <v>44937</v>
       </c>
@@ -5254,7 +5271,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="90"/>
       <c r="B38" s="98" t="s">
         <v>329</v>
@@ -5263,7 +5280,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="98" t="s">
         <v>330</v>
@@ -5272,7 +5289,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="90"/>
       <c r="B40" s="98" t="s">
         <v>331</v>
@@ -5281,7 +5298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="99" t="s">
         <v>332</v>
@@ -5290,7 +5307,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
       <c r="B42" s="98" t="s">
         <v>333</v>
@@ -5299,7 +5316,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="90"/>
       <c r="B43" s="98" t="s">
         <v>165</v>
@@ -5308,7 +5325,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="94">
         <v>44938</v>
       </c>
@@ -5319,7 +5336,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="98" t="s">
         <v>337</v>
@@ -5328,7 +5345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="98" t="s">
         <v>338</v>
@@ -5337,7 +5354,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
       <c r="B47" s="99" t="s">
         <v>341</v>
@@ -5346,7 +5363,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="90"/>
       <c r="B48" s="99" t="s">
         <v>343</v>
@@ -5355,7 +5372,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="91"/>
       <c r="B49" s="103" t="s">
         <v>344</v>
@@ -5364,7 +5381,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="94">
         <v>44939</v>
       </c>
@@ -5375,7 +5392,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
       <c r="B51" s="98" t="s">
         <v>347</v>
@@ -5384,7 +5401,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="98" t="s">
         <v>348</v>
@@ -5393,7 +5410,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
       <c r="B53" s="98" t="s">
         <v>350</v>
@@ -5402,7 +5419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
       <c r="B54" s="98" t="s">
         <v>351</v>
@@ -5411,7 +5428,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="90"/>
       <c r="B55" s="98" t="s">
         <v>353</v>
@@ -5420,7 +5437,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="94">
         <v>44942</v>
       </c>
@@ -5431,7 +5448,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="99" t="s">
         <v>358</v>
@@ -5440,7 +5457,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="99" t="s">
         <v>362</v>
@@ -5449,7 +5466,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="98" t="s">
         <v>360</v>
@@ -5458,7 +5475,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="99" t="s">
         <v>363</v>
@@ -5468,7 +5485,7 @@
       </c>
       <c r="D60" s="107"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="98" t="s">
         <v>364</v>
@@ -5477,7 +5494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="99" t="s">
         <v>365</v>
@@ -5487,7 +5504,7 @@
       </c>
       <c r="D62" s="107"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="90"/>
       <c r="B63" s="99" t="s">
         <v>165</v>
@@ -5496,7 +5513,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94">
         <v>44943</v>
       </c>
@@ -5507,7 +5524,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
         <v>370</v>
@@ -5516,7 +5533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="90"/>
       <c r="B66" s="99" t="s">
         <v>371</v>
@@ -5525,7 +5542,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94">
         <v>44944</v>
       </c>
@@ -5536,7 +5553,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="99" t="s">
         <v>376</v>
@@ -5545,7 +5562,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
         <v>377</v>
@@ -5555,7 +5572,7 @@
       </c>
       <c r="D69" s="108"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="99" t="s">
         <v>380</v>
@@ -5564,7 +5581,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
         <v>132</v>
@@ -5573,7 +5590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
         <v>381</v>
@@ -5583,7 +5600,7 @@
       </c>
       <c r="D72" s="107"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
         <v>382</v>
@@ -5592,7 +5609,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
         <v>385</v>
@@ -5601,7 +5618,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
         <v>386</v>
@@ -5610,7 +5627,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="98" t="s">
         <v>387</v>
@@ -5619,7 +5636,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="94">
         <v>44945</v>
       </c>
@@ -5630,7 +5647,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
         <v>184</v>
@@ -5639,7 +5656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
       <c r="B79" s="99" t="s">
         <v>392</v>
@@ -5649,7 +5666,7 @@
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="99" t="s">
         <v>394</v>
@@ -5659,7 +5676,7 @@
       </c>
       <c r="F80" s="33"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="99" t="s">
         <v>396</v>
@@ -5668,7 +5685,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="99" t="s">
         <v>165</v>
@@ -5677,7 +5694,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="94">
         <v>44946</v>
       </c>
@@ -5688,7 +5705,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="99" t="s">
         <v>399</v>
@@ -5697,7 +5714,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
       <c r="B85" s="99" t="s">
         <v>400</v>
@@ -5706,7 +5723,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="90"/>
       <c r="B86" s="99" t="s">
         <v>132</v>
@@ -5715,7 +5732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="99" t="s">
         <v>401</v>
@@ -5724,7 +5741,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="99" t="s">
         <v>404</v>
@@ -5734,7 +5751,7 @@
       </c>
       <c r="E88" s="107"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="99" t="s">
         <v>406</v>
@@ -5743,7 +5760,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="99" t="s">
         <v>170</v>
@@ -5752,7 +5769,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="99" t="s">
         <v>408</v>
@@ -5761,7 +5778,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="99" t="s">
         <v>409</v>
@@ -5770,7 +5787,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="99" t="s">
         <v>410</v>
@@ -5779,7 +5796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44949</v>
       </c>
@@ -5790,7 +5807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="99" t="s">
         <v>415</v>
@@ -5799,7 +5816,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="99" t="s">
         <v>417</v>
@@ -5808,7 +5825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="99" t="s">
         <v>40</v>
@@ -5817,7 +5834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="99" t="s">
         <v>419</v>
@@ -5826,7 +5843,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="99" t="s">
         <v>421</v>
@@ -5835,7 +5852,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91"/>
       <c r="B100" s="109" t="s">
         <v>422</v>
@@ -5844,7 +5861,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="94">
         <v>44950</v>
       </c>
@@ -5855,7 +5872,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="98" t="s">
         <v>132</v>
@@ -5864,7 +5881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="98" t="s">
         <v>439</v>
@@ -5873,7 +5890,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="90"/>
       <c r="B104" s="98" t="s">
         <v>440</v>
@@ -5882,7 +5899,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="91"/>
       <c r="B105" s="103" t="s">
         <v>165</v>
@@ -5891,7 +5908,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="94">
         <v>44951</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="90"/>
       <c r="B107" s="98" t="s">
         <v>427</v>
@@ -5911,7 +5928,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="90"/>
       <c r="B108" s="98" t="s">
         <v>429</v>
@@ -5920,7 +5937,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="98" t="s">
         <v>431</v>
@@ -5929,7 +5946,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="90"/>
       <c r="B110" s="98" t="s">
         <v>132</v>
@@ -5938,7 +5955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="90"/>
       <c r="B111" s="98" t="s">
         <v>149</v>
@@ -5947,7 +5964,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="98" t="s">
         <v>433</v>
@@ -5956,7 +5973,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="90"/>
       <c r="B113" s="98" t="s">
         <v>435</v>
@@ -5965,7 +5982,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="90"/>
       <c r="B114" s="98" t="s">
         <v>437</v>
@@ -5975,7 +5992,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="94">
         <v>44952</v>
       </c>
@@ -5986,7 +6003,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="90"/>
       <c r="B116" s="99" t="s">
         <v>443</v>
@@ -5995,7 +6012,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="90"/>
       <c r="B117" s="99" t="s">
         <v>445</v>
@@ -6004,7 +6021,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="90"/>
       <c r="B118" s="99" t="s">
         <v>234</v>
@@ -6013,7 +6030,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="90"/>
       <c r="B119" s="99" t="s">
         <v>396</v>
@@ -6022,7 +6039,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="91"/>
       <c r="B120" s="109" t="s">
         <v>165</v>
@@ -6031,7 +6048,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="94">
         <v>44953</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="90"/>
       <c r="B122" s="99" t="s">
         <v>449</v>
@@ -6051,7 +6068,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="90"/>
       <c r="B123" s="99" t="s">
         <v>450</v>
@@ -6060,7 +6077,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="90"/>
       <c r="B124" s="99" t="s">
         <v>452</v>
@@ -6069,7 +6086,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="90"/>
       <c r="B125" s="99" t="s">
         <v>454</v>
@@ -6079,7 +6096,7 @@
       </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="90"/>
       <c r="B126" s="99" t="s">
         <v>455</v>
@@ -6089,7 +6106,7 @@
       </c>
       <c r="E126" s="33"/>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="90"/>
       <c r="B127" s="99" t="s">
         <v>457</v>
@@ -6098,7 +6115,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="90"/>
       <c r="B128" s="99" t="s">
         <v>459</v>
@@ -6107,7 +6124,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="90"/>
       <c r="B129" s="99" t="s">
         <v>460</v>
@@ -6116,7 +6133,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="94">
         <v>44956</v>
       </c>
@@ -6128,7 +6145,7 @@
       </c>
       <c r="E130" s="33"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="90"/>
       <c r="B131" s="99" t="s">
         <v>464</v>
@@ -6137,7 +6154,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="91"/>
       <c r="B132" s="109" t="s">
         <v>133</v>
@@ -6146,7 +6163,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="94">
         <v>44957</v>
       </c>
@@ -6157,7 +6174,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="90"/>
       <c r="B134" s="99" t="s">
         <v>184</v>
@@ -6166,7 +6183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="91"/>
       <c r="B135" s="109" t="s">
         <v>469</v>
@@ -6184,20 +6201,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="110">
         <v>44958</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="98" t="s">
         <v>474</v>
@@ -6228,7 +6245,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="98" t="s">
         <v>471</v>
@@ -6237,7 +6254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="109" t="s">
         <v>478</v>
@@ -6246,7 +6263,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="94">
         <v>44959</v>
       </c>
@@ -6257,7 +6274,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="99" t="s">
         <v>480</v>
@@ -6266,7 +6283,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
       <c r="B8" s="99" t="s">
         <v>482</v>
@@ -6275,7 +6292,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="99" t="s">
         <v>484</v>
@@ -6284,7 +6301,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="98" t="s">
         <v>485</v>
@@ -6293,7 +6310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
       <c r="B11" s="98" t="s">
         <v>486</v>
@@ -6302,7 +6319,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
       <c r="B12" s="103" t="s">
         <v>165</v>
@@ -6311,7 +6328,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
         <v>44960</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="98" t="s">
         <v>149</v>
@@ -6331,7 +6348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
       <c r="B15" s="103" t="s">
         <v>489</v>
@@ -6340,7 +6357,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94">
         <v>44963</v>
       </c>
@@ -6351,7 +6368,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="99" t="s">
         <v>492</v>
@@ -6360,7 +6377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="90"/>
       <c r="B18" s="99" t="s">
         <v>493</v>
@@ -6369,7 +6386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="94">
         <v>44964</v>
       </c>
@@ -6380,7 +6397,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="98" t="s">
         <v>497</v>
@@ -6389,7 +6406,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91"/>
       <c r="B21" s="109" t="s">
         <v>500</v>
@@ -6398,7 +6415,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>44965</v>
       </c>
@@ -6409,7 +6426,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="98" t="s">
         <v>132</v>
@@ -6418,7 +6435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="91"/>
       <c r="B24" s="103" t="s">
         <v>504</v>
@@ -6427,7 +6444,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="113">
         <v>44966</v>
       </c>
@@ -6438,7 +6455,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
       <c r="B26" s="98" t="s">
         <v>184</v>
@@ -6447,7 +6464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="90"/>
       <c r="B27" s="99" t="s">
         <v>311</v>
@@ -6456,7 +6473,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="90"/>
       <c r="B28" s="98" t="s">
         <v>165</v>
@@ -6465,7 +6482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="94">
         <v>44967</v>
       </c>
@@ -6476,7 +6493,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="99" t="s">
         <v>507</v>
@@ -6485,7 +6502,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="91"/>
       <c r="B31" s="109" t="s">
         <v>508</v>
@@ -6494,7 +6511,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="94">
         <v>44970</v>
       </c>
@@ -6506,7 +6523,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="99" t="s">
         <v>514</v>
@@ -6515,7 +6532,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="99" t="s">
         <v>516</v>
@@ -6524,7 +6541,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="99" t="s">
         <v>518</v>
@@ -6533,7 +6550,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="98" t="s">
         <v>519</v>
@@ -6542,7 +6559,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="B37" s="98" t="s">
         <v>331</v>
@@ -6551,7 +6568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="99" t="s">
         <v>525</v>
@@ -6560,7 +6577,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="114" t="s">
         <v>526</v>
@@ -6569,7 +6586,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="107" t="s">
         <v>527</v>
@@ -6578,7 +6595,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="107" t="s">
         <v>528</v>
@@ -6588,7 +6605,7 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91"/>
       <c r="B42" s="115" t="s">
         <v>529</v>
@@ -6597,7 +6614,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="94">
         <v>44971</v>
       </c>
@@ -6608,7 +6625,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="90"/>
       <c r="B44" s="107" t="s">
         <v>534</v>
@@ -6617,7 +6634,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
       <c r="B45" s="107" t="s">
         <v>536</v>
@@ -6626,7 +6643,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
       <c r="B46" s="107" t="s">
         <v>40</v>
@@ -6635,7 +6652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="91"/>
       <c r="B47" s="115" t="s">
         <v>537</v>
@@ -6644,7 +6661,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="94">
         <v>44972</v>
       </c>
@@ -6655,7 +6672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
       <c r="B49" s="107" t="s">
         <v>541</v>
@@ -6664,7 +6681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="91"/>
       <c r="B50" s="115" t="s">
         <v>542</v>
@@ -6673,7 +6690,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="94">
         <v>44973</v>
       </c>
@@ -6684,7 +6701,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
       <c r="B52" s="107" t="s">
         <v>544</v>
@@ -6693,7 +6710,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="91"/>
       <c r="B53" s="115" t="s">
         <v>546</v>
@@ -6702,7 +6719,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="94">
         <v>44974</v>
       </c>
@@ -6714,7 +6731,7 @@
       </c>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
       <c r="B55" s="107" t="s">
         <v>149</v>
@@ -6723,7 +6740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="91"/>
       <c r="B56" s="115" t="s">
         <v>489</v>
@@ -6732,7 +6749,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="94">
         <v>44979</v>
       </c>
@@ -6743,7 +6760,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="107" t="s">
         <v>149</v>
@@ -6752,7 +6769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="107" t="s">
         <v>551</v>
@@ -6761,7 +6778,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="91"/>
       <c r="B60" s="115" t="s">
         <v>410</v>
@@ -6770,7 +6787,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="94">
         <v>44980</v>
       </c>
@@ -6781,7 +6798,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="107" t="s">
         <v>557</v>
@@ -6790,7 +6807,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="107" t="s">
         <v>559</v>
@@ -6799,7 +6816,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="B64" s="107" t="s">
         <v>560</v>
@@ -6808,7 +6825,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="107" t="s">
         <v>184</v>
@@ -6817,7 +6834,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="107" t="s">
         <v>40</v>
@@ -6826,7 +6843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="91"/>
       <c r="B67" s="115" t="s">
         <v>537</v>
@@ -6835,7 +6852,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="94">
         <v>44981</v>
       </c>
@@ -6846,7 +6863,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="107" t="s">
         <v>565</v>
@@ -6855,7 +6872,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="107" t="s">
         <v>567</v>
@@ -6864,7 +6881,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="107" t="s">
         <v>149</v>
@@ -6873,7 +6890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="91"/>
       <c r="B72" s="115" t="s">
         <v>150</v>
@@ -6882,7 +6899,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="94">
         <v>44984</v>
       </c>
@@ -6893,7 +6910,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="107" t="s">
         <v>571</v>
@@ -6902,7 +6919,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="107" t="s">
         <v>572</v>
@@ -6911,7 +6928,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="107" t="s">
         <v>574</v>
@@ -6920,7 +6937,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
       <c r="B77" s="107" t="s">
         <v>40</v>
@@ -6929,7 +6946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="107" t="s">
         <v>212</v>
@@ -6938,7 +6955,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="91"/>
       <c r="B79" s="115" t="s">
         <v>578</v>
@@ -6947,7 +6964,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="94">
         <v>44985</v>
       </c>
@@ -6958,7 +6975,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
       <c r="B81" s="107" t="s">
         <v>580</v>
@@ -6967,7 +6984,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
       <c r="B82" s="107" t="s">
         <v>184</v>
@@ -6976,7 +6993,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="90"/>
       <c r="B83" s="107" t="s">
         <v>40</v>
@@ -6985,7 +7002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
       <c r="B84" s="107" t="s">
         <v>582</v>
@@ -6994,7 +7011,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="91"/>
       <c r="B85" s="115" t="s">
         <v>583</v>
@@ -7003,7 +7020,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="94">
         <v>44986</v>
       </c>
@@ -7014,7 +7031,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="90"/>
       <c r="B87" s="107" t="s">
         <v>588</v>
@@ -7023,7 +7040,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="107" t="s">
         <v>590</v>
@@ -7032,7 +7049,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="107" t="s">
         <v>591</v>
@@ -7041,7 +7058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="107" t="s">
         <v>593</v>
@@ -7050,7 +7067,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="107" t="s">
         <v>595</v>
@@ -7059,7 +7076,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="107" t="s">
         <v>596</v>
@@ -7068,7 +7085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="91"/>
       <c r="B93" s="115" t="s">
         <v>597</v>
@@ -7077,7 +7094,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="94">
         <v>44987</v>
       </c>
@@ -7088,7 +7105,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="90"/>
       <c r="B95" s="107" t="s">
         <v>557</v>
@@ -7097,7 +7114,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="90"/>
       <c r="B96" s="107" t="s">
         <v>601</v>
@@ -7106,7 +7123,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="107" t="s">
         <v>149</v>
@@ -7115,7 +7132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="91"/>
       <c r="B98" s="115" t="s">
         <v>489</v>
@@ -7124,7 +7141,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="94">
         <v>44988</v>
       </c>
@@ -7135,25 +7152,25 @@
         <v>603</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="90"/>
-      <c r="B100" s="117" t="s">
+      <c r="B100" s="107" t="s">
         <v>605</v>
       </c>
       <c r="C100" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="90"/>
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="107" t="s">
         <v>606</v>
       </c>
       <c r="C101" s="96" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="94">
         <v>44991</v>
       </c>
@@ -7164,22 +7181,69 @@
         <v>608</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
-      <c r="B103" s="117" t="s">
+      <c r="B103" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="C103" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="91"/>
       <c r="B104" s="115" t="s">
         <v>489</v>
       </c>
       <c r="C104" s="105" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="94">
+        <v>44992</v>
+      </c>
+      <c r="B105" s="119" t="s">
+        <v>565</v>
+      </c>
+      <c r="C105" s="95" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="90"/>
+      <c r="B106" s="117" t="s">
+        <v>610</v>
+      </c>
+      <c r="C106" s="118" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="90"/>
+      <c r="B107" s="120" t="s">
+        <v>614</v>
+      </c>
+      <c r="C107" s="96" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="90"/>
+      <c r="B108" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="91"/>
+      <c r="B109" s="115" t="s">
+        <v>583</v>
+      </c>
+      <c r="C109" s="105" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Torino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FFEF7-FA64-4293-B542-FF997A0370D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2201E1C-735B-4370-8AFF-E80E0F228C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noviembre" sheetId="1" r:id="rId1"/>
     <sheet name="Diciembre" sheetId="2" r:id="rId2"/>
     <sheet name="Enero" sheetId="3" r:id="rId3"/>
     <sheet name="Febrero" sheetId="4" r:id="rId4"/>
+    <sheet name="Marzo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="621">
   <si>
     <t>Coordinación con Fabricio para continuar documento de Buenas prácticas para la solicitud de CAU</t>
   </si>
@@ -1884,6 +1885,24 @@
   </si>
   <si>
     <t>11:30-1:40</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(completado flujo basico)</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(agregando validaciones)</t>
+  </si>
+  <si>
+    <t>2:00-2:47</t>
+  </si>
+  <si>
+    <t>Reunidos debatiendo futuros cambios(evaluaciones y mas)</t>
+  </si>
+  <si>
+    <t>Integración de pruebas(E2E). Resolviendo conflictos en el flujo que sugen al integrar(Terminado)</t>
+  </si>
+  <si>
+    <t>2:47-5:30</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2404,6 +2423,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2698,12 +2743,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6201,10 +6250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F92E8-23EC-4AD7-827B-B9DF377CC9C4}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7020,234 +7069,324 @@
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="94">
-        <v>44986</v>
-      </c>
-      <c r="B86" s="116" t="s">
-        <v>585</v>
-      </c>
-      <c r="C86" s="95" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="90"/>
-      <c r="B87" s="107" t="s">
-        <v>588</v>
-      </c>
-      <c r="C87" s="96" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="107" t="s">
-        <v>590</v>
-      </c>
-      <c r="C88" s="96" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="107" t="s">
-        <v>591</v>
-      </c>
-      <c r="C89" s="96" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="107" t="s">
-        <v>593</v>
-      </c>
-      <c r="C90" s="96" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="90"/>
-      <c r="B91" s="107" t="s">
-        <v>595</v>
-      </c>
-      <c r="C91" s="96" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="107" t="s">
-        <v>596</v>
-      </c>
-      <c r="C92" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="91"/>
-      <c r="B93" s="115" t="s">
-        <v>597</v>
-      </c>
-      <c r="C93" s="105" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="94">
-        <v>44987</v>
-      </c>
-      <c r="B94" s="116" t="s">
-        <v>598</v>
-      </c>
-      <c r="C94" s="95" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="90"/>
-      <c r="B95" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="C95" s="96" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="90"/>
-      <c r="B96" s="107" t="s">
-        <v>601</v>
-      </c>
-      <c r="C96" s="96" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="90"/>
-      <c r="B97" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="91"/>
-      <c r="B98" s="115" t="s">
-        <v>489</v>
-      </c>
-      <c r="C98" s="105" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="94">
-        <v>44988</v>
-      </c>
-      <c r="B99" s="116" t="s">
-        <v>604</v>
-      </c>
-      <c r="C99" s="95" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="90"/>
-      <c r="B100" s="107" t="s">
-        <v>605</v>
-      </c>
-      <c r="C100" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="90"/>
-      <c r="B101" s="107" t="s">
-        <v>606</v>
-      </c>
-      <c r="C101" s="96" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="94">
-        <v>44991</v>
-      </c>
-      <c r="B102" s="116" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="95" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="C103" s="96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="91"/>
-      <c r="B104" s="115" t="s">
-        <v>489</v>
-      </c>
-      <c r="C104" s="105" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="94">
-        <v>44992</v>
-      </c>
-      <c r="B105" s="119" t="s">
-        <v>565</v>
-      </c>
-      <c r="C105" s="95" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="90"/>
-      <c r="B106" s="117" t="s">
-        <v>610</v>
-      </c>
-      <c r="C106" s="118" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="90"/>
-      <c r="B107" s="120" t="s">
-        <v>614</v>
-      </c>
-      <c r="C107" s="96" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="90"/>
-      <c r="B108" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="91"/>
-      <c r="B109" s="115" t="s">
-        <v>583</v>
-      </c>
-      <c r="C109" s="105" t="s">
-        <v>613</v>
-      </c>
-    </row>
+    <row r="90" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96609BE-CE30-4EC0-98F6-01660FA88B09}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="94">
+        <v>44986</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
+      <c r="B3" s="99" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="90"/>
+      <c r="B4" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="99" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="99" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="99" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="91"/>
+      <c r="B9" s="109" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="94">
+        <v>44987</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="90"/>
+      <c r="B11" s="99" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="90"/>
+      <c r="B12" s="99" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="91"/>
+      <c r="B14" s="109" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="94">
+        <v>44988</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="90"/>
+      <c r="B16" s="99" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="90"/>
+      <c r="B17" s="99" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="94">
+        <v>44991</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="91"/>
+      <c r="B20" s="109" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="94">
+        <v>44992</v>
+      </c>
+      <c r="B21" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="99" t="s">
+        <v>610</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="99" t="s">
+        <v>614</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="91"/>
+      <c r="B25" s="109" t="s">
+        <v>583</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="94">
+        <v>44993</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="90"/>
+      <c r="B28" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="94">
+        <v>44994</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="90"/>
+      <c r="B30" s="99" t="s">
+        <v>617</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="91"/>
+      <c r="B31" s="120" t="s">
+        <v>620</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>